--- a/spreadsheet/sqldb_security_checklist.pt.xlsx
+++ b/spreadsheet/sqldb_security_checklist.pt.xlsx
@@ -1100,17 +1100,17 @@
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Cofre da Chave do Azure</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Verifique se o SQLDB do Azure está tendo backups automatizados regulares</t>
+          <t>Proteja seus dados de backup com criptografia e armazene chaves com segurança no Cofre de Chaves do Azure</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t>O Banco de Dados SQL do Azure usa a tecnologia do SQL Server para criar backups completos a cada semana, backup diferencial a cada 12 a 24 horas e backup de log de transações a cada 5 a 10 minutos. Por padrão, o Banco de dados SQL armazena dados em blobs de armazenamento com redundância geográfica que são replicados para uma região emparelhada.</t>
+          <t>Certifique-se de que seus backups estejam protegidos contra ataques. Isso deve incluir a criptografia dos backups para proteger contra a perda de confidencialidade. Para backup de serviço regular do Azure, os dados de backup são criptografados automaticamente usando chaves gerenciadas pela plataforma do Azure. Você também pode optar por criptografar o backup usando uma chave gerenciada pelo cliente. Nesse caso, verifique se essa chave gerenciada pelo cliente no cofre de chaves também está no escopo de backup.</t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-1-ensure-regular-automated-backups</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-2-encrypt-backup-data</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>e2518261-b3bc-4bd1-b331-637fb2df833f</t>
+          <t>676f6951-0368-49e9-808d-c33a692c9a64</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Habilite o armazenamento de backup com redundância geográfica para proteger contra falhas em uma única região e perda de dados</t>
+          <t>Configurar backups automatizados do Banco de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>Por padrão, o Banco de dados SQL armazena dados em blobs de armazenamento com redundância geográfica que são replicados para uma região emparelhada. Para o Banco de dados SQL, a redundância de armazenamento de backup pode ser configurada no momento da criação do banco de dados ou pode ser atualizada para um banco de dados existente; as alterações feitas em um banco de dados existente se aplicam somente a backups futuros.</t>
+          <t>O Banco de Dados SQL do Azure usa a tecnologia do SQL Server para criar backups completos a cada semana, backup diferencial a cada 12 a 24 horas e backup de log de transações a cada 5 a 10 minutos. Por padrão, o Banco de dados SQL armazena dados em blobs de armazenamento com redundância geográfica que são replicados para uma região emparelhada.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/automated-backups-overview?tabs=single-database&amp;view=azuresql#backup-storage-redundancy</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-1-ensure-regular-automated-backups</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>f8c7cda2-3ed7-43fb-a100-85dcd12a0ee4</t>
+          <t>e2518261-b3bc-4bd1-b331-637fb2df833f</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1200,22 +1200,22 @@
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Cofre da Chave do Azure</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Proteja seus dados de backup com criptografia e armazene chaves com segurança no Cofre de Chaves do Azure</t>
+          <t>Habilite o armazenamento de backup com redundância geográfica para proteger contra falhas em uma única região e perda de dados</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que seus backups estejam protegidos contra ataques. Isso deve incluir a criptografia dos backups para proteger contra a perda de confidencialidade. Para backup de serviço regular do Azure, os dados de backup são criptografados automaticamente usando chaves gerenciadas pela plataforma do Azure. Você também pode optar por criptografar o backup usando uma chave gerenciada pelo cliente. Nesse caso, verifique se essa chave gerenciada pelo cliente no cofre de chaves também está no escopo de backup.</t>
+          <t>Por padrão, o Banco de dados SQL armazena dados em blobs de armazenamento com redundância geográfica que são replicados para uma região emparelhada. Para o Banco de dados SQL, a redundância de armazenamento de backup pode ser configurada no momento da criação do banco de dados ou pode ser atualizada para um banco de dados existente; as alterações feitas em um banco de dados existente se aplicam somente a backups futuros.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-2-encrypt-backup-data</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/automated-backups-overview?tabs=single-database&amp;view=azuresql#backup-storage-redundancy</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>676f6951-0368-49e9-808d-c33a692c9a64</t>
+          <t>f8c7cda2-3ed7-43fb-a100-85dcd12a0ee4</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,22 +1245,22 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Código</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Controle do código-fonte e revisão de código</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Validar periodicamente todos os backups, incluindo chaves gerenciadas pelo cliente</t>
+          <t>Usar sistemas de Controle do Código-Fonte para armazenar, manter e revisar o código do aplicativo implantado no Banco de Dados SQLDB do Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>Recomenda-se que a validação da preparação do aplicativo para o fluxo de trabalho de recuperação seja executada periodicamente. Verificar o comportamento do aplicativo e as implicações da perda de dados e/ou a interrupção que o failover envolve é uma boa prática de engenharia. Também é um requisito para a maioria dos padrões do setor como parte da certificação de continuidade de negócios. A execução de um exercício de recuperação de desastres consiste em: (1) Simular a interrupção da camada de dados (2) Recuperar (3) Validar a integridade do aplicativo após a recuperação.</t>
+          <t>O código mal-intencionado pode potencialmente contornar os controles de segurança. Antes de implantar o código personalizado na produção, é essencial revisar o que está sendo implantado. Use uma ferramenta de banco de dados como o Azure Data Studio que dá suporte ao controle do código-fonte. Implementar ferramentas e lógica para análise de código, vulnerabilidade e verificação de credenciais.</t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-3-validate-all-backups-including-customer-managed-keys</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>a604bd0b-e62d-4037-8318-b62a476ea771</t>
+          <t>7ca9f006-d2a9-4652-951c-de8e4ac5e76e</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,22 +1295,22 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Descoberta e classificação de dados</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Cofre da Chave do Azure</t>
+          <t>Descoberta e classificação de dados</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Reduza o risco de chaves perdidas do Cofre da Chave do Azure (AKV) usadas no Banco de Dados SQL do Azure</t>
+          <t>Planejar e configurar a Descoberta e Classificação de Dados para proteger os dados confidenciais</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que você tem medidas em vigor para prevenir e se recuperar da perda de chaves. Habilite a proteção de exclusão e limpeza suave no Cofre da Chave do Azure para proteger as chaves contra exclusão acidental ou maliciosa.</t>
+          <t>Descubra colunas que potencialmente contêm dados confidenciais. O que é considerado dados confidenciais depende muito do cliente, da regulamentação de conformidade, etc., e precisa ser avaliado pelos usuários responsáveis por esses dados. Classifique as colunas para usar cenários avançados de auditoria e proteção baseados em sensibilidade. Revise os resultados da descoberta automatizada e finalize a classificação, se necessário.</t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
@@ -1326,17 +1326,13 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/key-vault/general/key-vault-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#identify-and-tag-sensitive-data</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
-      <c r="L12" s="26" t="inlineStr">
-        <is>
-          <t>c7bb4dc5-4cd9-4215-a46d-9ddd2566f845</t>
-        </is>
-      </c>
+      <c r="L12" s="26" t="inlineStr"/>
       <c r="M12" s="26" t="n"/>
       <c r="N12" s="26" t="n"/>
       <c r="O12" s="26" t="n"/>
@@ -1355,12 +1351,12 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Usar a Descoberta e Classificação de Dados do Banco de Dados SQL do Azure para descobrir, classificar, rotular e proteger os confidenciais</t>
+          <t>Revise o estado de classificação do banco de dados para obter uma avaliação precisa</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>Descubra colunas que potencialmente contêm dados confidenciais. O que é considerado dados confidenciais depende muito do cliente, da regulamentação de conformidade, etc., e precisa ser avaliado pelos usuários responsáveis por esses dados. Classifique as colunas para usar cenários avançados de auditoria e proteção baseados em sensibilidade. Revise os resultados da descoberta automatizada e finalize a classificação, se necessário.</t>
+          <t>A Descoberta e Classificação de Dados é incorporada ao Banco de Dados SQL do Azure, à Instância Gerenciada do SQL do Azure e ao Azure Synapse Analytics. Ele fornece recursos básicos para descobrir, classificar, rotular e relatar os dados confidenciais em seus bancos de dados. Você pode exibir o estado de classificação do banco de dados em um painel detalhado no portal do Azure. Além disso, você pode baixar um relatório no formato Excel para usar para fins de conformidade e auditoria e outras necessidades.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
@@ -1376,13 +1372,17 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#identify-and-tag-sensitive-data</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/data-discovery-and-classification-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
-      <c r="L13" s="26" t="inlineStr"/>
+      <c r="L13" s="26" t="inlineStr">
+        <is>
+          <t>0b30c724-9d42-4294-9db5-b60b121384bc</t>
+        </is>
+      </c>
       <c r="M13" s="26" t="n"/>
       <c r="N13" s="26" t="n"/>
       <c r="O13" s="26" t="n"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Para esquemas de banco de dados complexos e avançados, ou para gerenciar em grande escala, o Microsoft Purview é altamente recomendado para Descoberta e Classificação de Dados</t>
+          <t>Usar o Microsoft Purview para esquemas de banco de dados complexos e avançados ou para gerenciar em escala</t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
@@ -1441,22 +1441,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Descoberta e classificação de dados</t>
+          <t>Mascaramento de dados</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Descoberta e classificação de dados</t>
+          <t>Mascaramento de dados</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Monitore regularmente o painel de classificação para obter uma avaliação precisa do estado de classificação do banco de dados</t>
+          <t>Use o mascaramento de dados para impedir o acesso não autorizado a dados de usuários não administradores se nenhuma criptografia for possível</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t>A Descoberta e Classificação de Dados é incorporada ao Banco de Dados SQL do Azure, à Instância Gerenciada do SQL do Azure e ao Azure Synapse Analytics. Ele fornece recursos básicos para descobrir, classificar, rotular e relatar os dados confidenciais em seus bancos de dados. Você pode exibir o estado de classificação do banco de dados em um painel detalhado no portal do Azure. Além disso, você pode baixar um relatório no formato Excel para usar para fins de conformidade e auditoria e outras necessidades.</t>
+          <t>O uso desse recurso é recomendado somente se nenhuma estratégia de criptografia for viável e houver um requisito específico para preservar tipos e formatos de dados. O mascaramento dinâmico de dados limita a exposição de dados confidenciais, mascarando-os para usuários não privilegiados. O mascaramento dinâmico de dados ajuda a impedir o acesso não autorizado a dados confidenciais, permitindo que os clientes designem a quantidade de dados confidenciais a serem revelados com impacto mínimo na camada de aplicativo.</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1472,7 +1472,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/data-discovery-and-classification-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/dynamic-data-masking-overview</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1480,7 +1480,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>0b30c724-9d42-4294-9db5-b60b121384bc</t>
+          <t>9391fd50-135e-453e-90a7-c1a23f88cc13</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1491,27 +1491,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Mascaramento de dados</t>
+          <t>Defensor</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Mascaramento de dados</t>
+          <t>Proteção Avançada contra Ameaças</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Use o mascaramento de dados para impedir o acesso não autorizado a dados de usuários não administradores se nenhuma criptografia for possível</t>
+          <t>Revise e conclua a configuração da Proteção Avançada contra Ameaças (ATP)</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>O uso desse recurso é recomendado somente se nenhuma estratégia de criptografia for viável e houver um requisito específico para preservar tipos e formatos de dados. O mascaramento dinâmico de dados limita a exposição de dados confidenciais, mascarando-os para usuários não privilegiados. O mascaramento dinâmico de dados ajuda a impedir o acesso não autorizado a dados confidenciais, permitindo que os clientes designem a quantidade de dados confidenciais a serem revelados com impacto mínimo na camada de aplicativo.</t>
+          <t>O SQL Advanced Threat Detection (ATP) fornece uma camada de segurança que detecta possíveis vulnerabilidades e atividades anômalas em bancos de dados, como ataques de injeção de SQL e padrões de comportamento incomuns. Quando uma ameaça potencial é detectada, a Detecção de Ameaças envia um alerta acionável em tempo real por email e no Microsoft Defender para Nuvem, que inclui etapas claras de investigação e correção para a ameaça específica.</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1522,7 +1522,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/dynamic-data-masking-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1530,7 +1530,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>9391fd50-135e-453e-90a7-c1a23f88cc13</t>
+          <t>4e52d73f-5d37-428f-b3a2-e6997e835979</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Habilitar o Microsoft Defender para SQL do Azure no nível de assinatura</t>
+          <t>Habilitar o Microsoft Defender para SQL do Azure</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
@@ -1596,17 +1596,17 @@
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Avaliação de vulnerabilidade</t>
+          <t>Defender para SQL do Azure</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Revisar e concluir a configuração da Avaliação de Vulnerabilidade (VA)</t>
+          <t>Preparar um plano de resposta de segurança para reagir prontamente aos alertas SQL do Microsoft Defender para Azure</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>A avaliação de vulnerabilidade do SQLDB do Azure é um serviço que fornece visibilidade do seu estado de segurança. A avaliação de vulnerabilidades inclui etapas acionáveis para resolver problemas de segurança e aprimorar a segurança do banco de dados. Ele pode ajudá-lo a monitorar um ambiente de banco de dados dinâmico onde as alterações são difíceis de controlar e melhorar sua postura de segurança SQL.</t>
+          <t>O Microsoft Defender para Azure SQL ATP detecta atividades anômalas que indicam tentativas incomuns e potencialmente prejudiciais de acessar ou explorar bancos de dados. Os alertas podem ser configurados e gerados e serão relatados no console do Defender for.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1622,7 +1622,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1630,7 +1630,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>a6101ae7-534c-45ab-86fd-b34c55ea21ca</t>
+          <t>ca342fdf-d25a-4427-b105-fcd50ff8a0ea</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1646,17 +1646,17 @@
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Proteção Avançada contra Ameaças</t>
+          <t>Avaliação de vulnerabilidade</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Revise e conclua a configuração da Proteção Avançada contra Ameaças (ATP)</t>
+          <t>Configurar descobertas de Avaliação de Vulnerabilidade (VA) e recomendações de revisão</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>O SQL Advanced Threat Detection (ATP) fornece uma camada de segurança que detecta possíveis vulnerabilidades e atividades anômalas em bancos de dados, como ataques de injeção de SQL e padrões de comportamento incomuns. Quando uma ameaça potencial é detectada, a Detecção de Ameaças envia um alerta acionável em tempo real por email e no Microsoft Defender para Nuvem, que inclui etapas claras de investigação e correção para a ameaça específica.</t>
+          <t>A avaliação de vulnerabilidade do SQLDB do Azure é um serviço que fornece visibilidade do seu estado de segurança. A avaliação de vulnerabilidades inclui etapas acionáveis para resolver problemas de segurança e aprimorar a segurança do banco de dados. Ele pode ajudá-lo a monitorar um ambiente de banco de dados dinâmico onde as alterações são difíceis de controlar e melhorar sua postura de segurança SQL.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
@@ -1672,7 +1672,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
+          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-overview</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1680,7 +1680,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>4e52d73f-5d37-428f-b3a2-e6997e835979</t>
+          <t>a6101ae7-534c-45ab-86fd-b34c55ea21ca</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1696,17 +1696,17 @@
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Defender para SQL do Azure</t>
+          <t>Avaliação de vulnerabilidade</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Preparar um plano de resposta de segurança para reagir prontamente aos alertas SQL do Microsoft Defender para Azure</t>
+          <t>Revisar regularmente as descobertas e recomendações da Avaliação de Vulnerabilidade (VA) e preparar um plano para corrigir</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>O Microsoft Defender para Azure SQL ATP detecta atividades anômalas que indicam tentativas incomuns e potencialmente prejudiciais de acessar ou explorar bancos de dados. Os alertas podem ser configurados e gerados e serão relatados no console do Defender for.</t>
+          <t>O Microsoft Defender para Nuvem fornece avaliação de vulnerabilidade para seus Bancos de Dados SQL do Azure. A avaliação de vulnerabilidades verifica seus bancos de dados em busca de vulnerabilidades de software e fornece uma lista de descobertas. Você pode usar as descobertas para corrigir vulnerabilidades de software e desabilitar as descobertas.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
@@ -1722,7 +1722,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
+          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-find?view=azuresql</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1730,7 +1730,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ca342fdf-d25a-4427-b105-fcd50ff8a0ea</t>
+          <t>c8c5f112-1e50-4f77-9264-8195b4cd61ac</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1741,27 +1741,27 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Defensor</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Avaliação de vulnerabilidade</t>
+          <t>Sempre criptografado</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Revisar regularmente as descobertas e recomendações da Avaliação de Vulnerabilidade (VA) e preparar um plano para corrigir</t>
+          <t>Para proteger dados confidenciais de PII de usuários administradores, considere o uso de Always Encrypted</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>O Microsoft Defender para Nuvem fornece avaliação de vulnerabilidade para seus Bancos de Dados SQL do Azure. A avaliação de vulnerabilidades verifica seus bancos de dados em busca de vulnerabilidades de software e fornece uma lista de descobertas. Você pode usar as descobertas para corrigir vulnerabilidades de software e desabilitar as descobertas.</t>
+          <t>Use Sempre Criptografado para garantir que os dados confidenciais não sejam expostos em texto sem formatação no Banco de Dados SQL do Azure ou na Instância Gerenciada SQL, mesmo na memória/em uso. O Always Encrypted protege os dados de administradores de banco de dados (DBAs) e administradores de nuvem (ou agentes mal-intencionados que podem se passar por usuários com privilégios altos, mas não autorizados) e oferece mais controle sobre quem pode acessar seus dados.</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1772,7 +1772,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-find?view=azuresql</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#protect-sensitive-data-in-use-from-high-privileged-unauthorized-users</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1780,7 +1780,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>c8c5f112-1e50-4f77-9264-8195b4cd61ac</t>
+          <t>d2f928aa-ccd3-4167-8c5d-35848428564b</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1791,27 +1791,27 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Código</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Controle do código-fonte e revisão de código</t>
+          <t>Sempre criptografado</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Usar sistemas de Controle do Código-Fonte para armazenar, manter e revisar o código do aplicativo implantado no Banco de Dados SQLDB do Azure</t>
+          <t>Se a proteção de dados PII confidenciais de usuários administradores for um requisito fundamental, mas as limitações do Always Encrypted não puderem ser toleradas, considere a adoção do Always Encrypted with Secure Enclaves</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>O código mal-intencionado pode potencialmente contornar os controles de segurança. Antes de implantar o código personalizado na produção, é essencial revisar o que está sendo implantado. Use uma ferramenta de banco de dados como o Azure Data Studio que dá suporte ao controle do código-fonte. Implementar ferramentas e lógica para análise de código, vulnerabilidade e verificação de credenciais.</t>
+          <t xml:space="preserve">O Always Encrypted with Secure Enclaves expande os recursos de computação confidencial do Always Encrypted, permitindo criptografia in-loco e consultas confidenciais mais ricas. O Always Encrypted with Secure Enclaves aborda essas limitações, permitindo alguns cálculos em dados de texto sem formatação dentro de um enclave seguro no lado do servidor. </t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/encryption/always-encrypted-enclaves</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1830,7 +1830,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>7ca9f006-d2a9-4652-951c-de8e4ac5e76e</t>
+          <t>65d7e54a-10a6-4094-b673-9ff3809c9277</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1846,22 +1846,22 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Criptografia de dados transparente</t>
+          <t>Criptografia em nível de célula</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Garantir que a Criptografia de Dados Transparente (TDE) seja mantida habilitada</t>
+          <t>Para proteger dados confidenciais de PII de usuários não administradores em colunas de tabela específicas, considere o uso de CLE (Criptografia em Nível de Célula)</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Habilitada por padrão, a TDE (Transparent Data Encryption, criptografia transparente de dados) ajuda a proteger os arquivos de banco de dados contra a divulgação de informações, executando criptografia e descriptografia em tempo real do banco de dados, backups associados e arquivos de log de transações 'em repouso', sem exigir alterações no aplicativo.</t>
+          <t>Com o Banco de Dados SQL do Azure, você pode aplicar criptografia simétrica a uma coluna de dados usando Transact-SQL. Essa abordagem é chamada de criptografia em nível de célula ou CLE (criptografia em nível de coluna), porque você pode usá-la para criptografar colunas específicas ou até mesmo células específicas de dados com chaves de criptografia diferentes. Isso oferece uma capacidade de criptografia mais granular do que o TDE, que criptografa dados em páginas.</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1872,7 +1872,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#control-access-of-application-users-to-sensitive-data-through-encryption</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1880,7 +1880,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>c614ac47-bebf-4061-b0a1-43e0c6b5e00d</t>
+          <t>c03ce136-e3d5-4e17-bf25-ed955ee480d3</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Use chaves gerenciadas pelo cliente (CMK) no Cofre de Chaves do Azure (AKV) se precisar de maior transparência e controle granular sobre a proteção TDE</t>
+          <t>Garantir que a Criptografia de Dados Transparente (TDE) seja mantida habilitada</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Se for necessária a separação de funções no gerenciamento de chaves e dados dentro da organização, aproveite a CMK (Customer Managed Keys) para TDE (Transparent Data Encryption) para seu SQLDB do Azure e use o Cofre de Chaves do Azure para armazenar (consulte sua lista de verificação). Aproveite esse recurso quando você tiver requisitos de segurança rigorosos que não podem ser atendidos pelas chaves de serviço gerenciadas.</t>
+          <t>Habilitada por padrão, a TDE (Transparent Data Encryption, criptografia transparente de dados) ajuda a proteger os arquivos de banco de dados contra a divulgação de informações, executando criptografia e descriptografia em tempo real do banco de dados, backups associados e arquivos de log de transações 'em repouso', sem exigir alterações no aplicativo.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1930,7 +1930,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2edb4165-4f54-47cc-a891-5c82c2f21e25</t>
+          <t>c614ac47-bebf-4061-b0a1-43e0c6b5e00d</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1946,22 +1946,22 @@
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Criptografia em nível de célula</t>
+          <t>Criptografia de dados transparente</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Para proteger dados confidenciais de PII de usuários não administradores em colunas de tabela específicas, considere o uso de CLE (Criptografia em Nível de Célula)</t>
+          <t>Use chaves gerenciadas pelo cliente (CMK) no Cofre de Chaves do Azure (AKV) se precisar de maior transparência e controle granular sobre a proteção TDE</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>Com o Banco de Dados SQL do Azure, você pode aplicar criptografia simétrica a uma coluna de dados usando Transact-SQL. Essa abordagem é chamada de criptografia em nível de célula ou CLE (criptografia em nível de coluna), porque você pode usá-la para criptografar colunas específicas ou até mesmo células específicas de dados com chaves de criptografia diferentes. Isso oferece uma capacidade de criptografia mais granular do que o TDE, que criptografa dados em páginas.</t>
+          <t>Se for necessária a separação de funções no gerenciamento de chaves e dados dentro da organização, aproveite a CMK (Customer Managed Keys) para TDE (Transparent Data Encryption) para seu SQLDB do Azure e use o Cofre de Chaves do Azure para armazenar (consulte sua lista de verificação). Aproveite esse recurso quando você tiver requisitos de segurança rigorosos que não podem ser atendidos pelas chaves de serviço gerenciadas.</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#control-access-of-application-users-to-sensitive-data-through-encryption</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-overview</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1980,7 +1980,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>c03ce136-e3d5-4e17-bf25-ed955ee480d3</t>
+          <t>2edb4165-4f54-47cc-a891-5c82c2f21e25</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1996,22 +1996,22 @@
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Sempre criptografado</t>
+          <t>Segurança da camada de transporte</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Para proteger dados confidenciais de PII de usuários administradores, considere o uso de Always Encrypted</t>
+          <t>Impor a versão mínima do TLS à versão mais recente disponível</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Use Sempre Criptografado para garantir que os dados confidenciais não sejam expostos em texto sem formatação no Banco de Dados SQL do Azure ou na Instância Gerenciada SQL, mesmo na memória/em uso. O Always Encrypted protege os dados de administradores de banco de dados (DBAs) e administradores de nuvem (ou agentes mal-intencionados que podem se passar por usuários com privilégios altos, mas não autorizados) e oferece mais controle sobre quem pode acessar seus dados.</t>
+          <t>A configuração de versão mínima de TLS (Transport Layer Security) permite que os clientes escolham qual versão do TLS seu banco de dados SQL usa. É possível alterar a versão mínima do TLS usando o portal do Azure, o Azure PowerShell e a CLI do Azure.</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#protect-sensitive-data-in-use-from-high-privileged-unauthorized-users</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-settings?source=recommendations&amp;view=azuresql&amp;tabs=azure-portal#minimal-tls-version</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2030,7 +2030,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>d2f928aa-ccd3-4167-8c5d-35848428564b</t>
+          <t>7754b605-57fd-4bcb-8213-52c39d8e8225</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2041,27 +2041,27 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Sempre criptografado</t>
+          <t>Azure Active Directory</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Se a proteção de dados PII confidenciais de usuários administradores for um requisito fundamental, mas as limitações do Always Encrypted não puderem ser toleradas, considere a adoção do Always Encrypted with Secure Enclaves</t>
+          <t>Aproveitar a autenticação do Azure AD para conexões com os Bancos de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Always Encrypted with Secure Enclaves expande os recursos de computação confidencial do Always Encrypted, permitindo criptografia in-loco e consultas confidenciais mais ricas. O Always Encrypted with Secure Enclaves aborda essas limitações, permitindo alguns cálculos em dados de texto sem formatação dentro de um enclave seguro no lado do servidor. </t>
+          <t>Use a autenticação do Azure Active Directory (Azure AD) para gerenciamento centralizado de identidades. Use a Autenticação SQL somente se realmente necessário e documente como exceções.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2072,14 +2072,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/encryption/always-encrypted-enclaves</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-overview</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>65d7e54a-10a6-4094-b673-9ff3809c9277</t>
+          <t>c9b8b6bf-2c6b-453d-b400-de9a43a549d7</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2090,27 +2090,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Segurança da camada de transporte</t>
+          <t>Azure Active Directory</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Impor a versão mínima do TLS à versão mais recente disponível</t>
+          <t>Criar um grupo separado do Azure AD com duas contas de administrador para cada servidor lógico do Banco de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t>A configuração de versão mínima de TLS (Transport Layer Security) permite que os clientes escolham qual versão do TLS seu banco de dados SQL usa. É possível alterar a versão mínima do TLS usando o portal do Azure, o Azure PowerShell e a CLI do Azure.</t>
+          <t>O uso de grupos do Azure AD simplifica o gerenciamento de permissões e tanto o proprietário do grupo quanto o proprietário do recurso podem adicionar/remover membros de/para o grupo. Crie um grupo separado para administradores do Azure AD para cada servidor lógico. Monitore as alterações de associação de grupo do Azure AD usando os relatórios de atividade de auditoria do Azure AD.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2121,14 +2121,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-settings?source=recommendations&amp;view=azuresql&amp;tabs=azure-portal#minimal-tls-version</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#central-management-for-identities</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>7754b605-57fd-4bcb-8213-52c39d8e8225</t>
+          <t>29820254-1d14-4778-ae90-ff4aeba504a3</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2149,12 +2149,12 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Aproveitar a autenticação do Azure AD para conexões com os Bancos de Dados SQL do Azure</t>
+          <t>Minimizar o uso de autenticação baseada em senha para aplicativos</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t>Use a autenticação do Azure Active Directory (Azure AD) para gerenciamento centralizado de identidades. Use a Autenticação SQL somente se realmente necessário e documente como exceções.</t>
+          <t>Verifique se identidades gerenciadas atribuídas ao sistema e ao usuário distintas, dedicadas à função, com menos permissões atribuídas, sejam usadas para comunicação de serviços e aplicativos do Azure com os bancos de dados SQLDB do Azure.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2170,14 +2170,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#minimize-the-use-of-password-based-authentication-for-applications</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c9b8b6bf-2c6b-453d-b400-de9a43a549d7</t>
+          <t>df3a09ee-03bb-4198-8637-d141acf5f289</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2193,22 +2193,22 @@
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Identidades gerenciadas</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Criar um grupo separado do Azure AD com duas contas de administrador para cada instância SQLDB</t>
+          <t>Atribuir ao Banco de Dados SQL do Azure uma identidade gerenciada para acesso a recursos de saída</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>O uso de grupos do Azure AD simplifica o gerenciamento de permissões e tanto o proprietário do grupo quanto o proprietário do recurso podem adicionar/remover membros de/para o grupo. Crie um grupo separado para administradores do Azure AD para cada servidor ou instância gerenciada. Monitore as alterações de associação de grupo do Azure AD usando os relatórios de atividade de auditoria do Azure AD.</t>
+          <t>As identidades gerenciadas atribuídas pelo sistema ou pelo usuário permitem que o SQLDB do Azure se autentique em outros serviços de nuvem (por exemplo, Cofre da Chave do Azure) sem armazenar credenciais no código. Uma vez habilitadas, todas as permissões necessárias podem ser concedidas por meio do controle de acesso baseado em função do Azure para a instância SQLDB específica do Azure. Não compartilhe identidades gerenciadas atribuídas pelo usuário em vários serviços, se não for estritamente necessário.</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2219,14 +2219,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#central-management-for-identities</t>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>29820254-1d14-4778-ae90-ff4aeba504a3</t>
+          <t>69891194-5074-4e30-8f69-4efc3c580900</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2242,17 +2242,17 @@
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Senhas</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Habilitar MFA (Multi-Factor Authentication) no Azure AD usando CA (Acesso Condicional) para autenticação interativa</t>
+          <t>Minimizar o uso de autenticação baseada em senha para usuários</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>O Azure AD Multi-Factor Authentication (MFA) ajuda a fornecer segurança adicional, exigindo mais de uma forma de autenticação. Use o modo de autenticação Interativa do Azure AD para o Banco de Dados SQL do Azure e a Instância Gerenciada SQL do Azure, onde uma senha é solicitada interativamente, seguida pela Autenticação Multifator.</t>
+          <t>Use uma autenticação integrada do Azure AD que elimina o uso de senhas. Os métodos de autenticação baseados em senha são uma forma mais fraca de autenticação. As credenciais podem ser comprometidas ou distribuídas por engano. Use a autenticação de logon único usando credenciais do Windows. Federar o domínio do AD local com o Azure AD e usar a autenticação integrada do Windows (para computadores ingressados no domínio com o Azure AD).</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2268,16 +2268,12 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-mfa-ssms-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-configure?view=azuresql&amp;tabs=azure-powershell#active-directory-integrated-authentication</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
-      <c r="L31" s="26" t="inlineStr">
-        <is>
-          <t>4bcb1d1c-7a32-455a-8456-ef22a0372240</t>
-        </is>
-      </c>
+      <c r="L31" s="26" t="inlineStr"/>
       <c r="M31" s="26" t="n"/>
       <c r="N31" s="26" t="n"/>
       <c r="O31" s="26" t="n"/>
@@ -2286,22 +2282,22 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Senhas</t>
+          <t>Resumo do banco de dados</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Minimizar o uso de autenticação baseada em senha para usuários</t>
+          <t>Usar o Razão Confidencial do Azure para armazenar resumos de banco de dados somente se recursos de segurança avançados forem necessários</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Use uma autenticação integrada do Azure AD que elimina o uso de senhas. Os métodos de autenticação baseados em senha são uma forma mais fraca de autenticação. As credenciais podem ser comprometidas ou distribuídas por engano. Use a autenticação de logon único usando credenciais do Windows. Federar o domínio do AD local com o Azure AD e usar a autenticação integrada do Windows (para computadores ingressados no domínio com o Azure AD).</t>
+          <t>O hash do bloco mais recente no livro-razão do banco de dados é chamado de resumo do banco de dados. Ele representa o estado de todas as tabelas contábeis no banco de dados no momento em que o bloco foi gerado. Gerar um resumo de banco de dados é eficiente, porque envolve o cálculo apenas dos hashes dos blocos que foram anexados recentemente. O Razão Confidencial do Azure é um dos armazenamentos com suporte, pode ser usado e dá suporte à geração e ao armazenamento automáticos de resumos de banco de dados. O Azure Ledger fornece recursos de segurança avançados, como a Prova de Livro-Razão Blockchain e Enclaves de Hardware Confidenciais. Use-o somente se recursos de segurança avançados forem necessários, caso contrário, reverta para o armazenamento do Azure.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
@@ -2317,13 +2313,17 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-configure?view=azuresql&amp;tabs=azure-powershell#active-directory-integrated-authentication</t>
+          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/technology-choices/multiparty-computing-service#confidential-ledger-and-azure-blob-storage</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
-      <c r="L32" s="26" t="inlineStr"/>
+      <c r="L32" s="26" t="inlineStr">
+        <is>
+          <t>0e853380-50ba-4bce-b2fd-5c7391c85ecc</t>
+        </is>
+      </c>
       <c r="M32" s="26" t="n"/>
       <c r="N32" s="26" t="n"/>
       <c r="O32" s="26" t="n"/>
@@ -2332,22 +2332,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Resumo do banco de dados</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Minimizar o uso de autenticação baseada em senha para aplicativos</t>
+          <t>Se a conta de armazenamento do Azure for usada para armazenar resumos de banco de dados, verifique se a segurança está configurada corretamente</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>Verifique se identidades gerenciadas atribuídas ao sistema e ao usuário distintas, dedicadas à função, com menos permissões atribuídas, sejam usadas para comunicação de serviços e aplicativos do Azure com os bancos de dados SQLDB do Azure.</t>
+          <t>O hash do bloco mais recente no livro-razão do banco de dados é chamado de resumo do banco de dados. Ele representa o estado de todas as tabelas contábeis no banco de dados no momento em que o bloco foi gerado. Gerar um resumo de banco de dados é eficiente, porque envolve o cálculo apenas dos hashes dos blocos que foram anexados recentemente. O recurso Armazenamento de Blobs do Azure com Armazenamento Imutável pode ser usado e dá suporte à geração e ao armazenamento automáticos de resumos de banco de dados. Para evitar a violação de seus arquivos de resumo, configure e bloqueie uma política de retenção para seu contêiner.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2363,7 +2363,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#minimize-the-use-of-password-based-authentication-for-applications</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-digest-management</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>df3a09ee-03bb-4198-8637-d141acf5f289</t>
+          <t>afefb2d3-95da-4ac9-acf5-33d18b32ef9a</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2382,27 +2382,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Identidades gerenciadas</t>
+          <t>Integridade</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Atribuir ao Banco de Dados SQL do Azure uma identidade gerenciada para acesso a recursos de saída</t>
+          <t>Agende o processo de verificação do Ledger regularmente para verificar a integridade dos dados</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>As identidades gerenciadas atribuídas pelo sistema ou pelo usuário permitem que o SQLDB do Azure se autentique em outros serviços de nuvem (por exemplo, Cofre da Chave do Azure) sem armazenar credenciais no código. Uma vez habilitadas, todas as permissões necessárias podem ser concedidas por meio do controle de acesso baseado em função do Azure para a instância SQLDB específica do Azure. Não compartilhe identidades gerenciadas atribuídas pelo usuário em vários serviços, se não for estritamente necessário.</t>
+          <t>O Ledger fornece uma forma de integridade de dados chamada integridade direta, que fornece evidências de adulteração de dados em dados em suas tabelas contábeis. O processo de verificação do banco de dados leva como entrada um ou mais resumos de banco de dados gerados anteriormente. Em seguida, ele recalcula os hashes armazenados no livro-razão do banco de dados com base no estado atual das tabelas contábeis. Se os hashes computados não corresponderem aos resumos de entrada, a verificação falhará. A falha indica que os dados foram adulterados. O processo de verificação relata todas as inconsistências que detecta.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2413,7 +2413,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-database-verification</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>69891194-5074-4e30-8f69-4efc3c580900</t>
+          <t>f8d4ffda-8aac-4cc6-b72b-c81cb8625420</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2432,22 +2432,22 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Proteja e limite usuários altamente privilegiados que têm acesso ao Banco de Dados SQL do Azure usando o PIM (Gerenciamento de Identidade Privilegiada) e o acesso Just-in-time (JIT)</t>
+          <t>Se a prova criptográfica da integridade dos dados for um requisito crítico, o recurso Ledger deve ser considerado</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Você deve limitar o número de contas ou funções altamente privilegiadas e proteger essas contas em um nível elevado. Os usuários com esse privilégio podem, direta ou indiretamente, ler e modificar todos os recursos em seu ambiente do Azure. Você pode habilitar o acesso privilegiado just-in-time (JIT) aos recursos do Azure e ao Azure AD usando o Azure AD PIM. O JIT concede permissões temporárias para executar tarefas privilegiadas somente quando os usuários precisam. O PIM também pode gerar alertas de segurança quando há atividade suspeita ou não segura em sua organização do Azure AD.</t>
+          <t>O recurso Ledger fornece recursos de evidência de violação em seu banco de dados. Você pode atestar criptograficamente a outras partes, como auditores ou outras partes comerciais, que seus dados não foram adulterados. O Ledger ajuda a proteger os dados de qualquer invasor ou usuário com alto privilégio, incluindo administradores de banco de dados (DBAs), administradores de sistema e administradores de nuvem.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
@@ -2463,7 +2463,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-1-protect-and-limit-highly-privileged-users</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-overview</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2471,7 +2471,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>c496b249-94d4-4c04-acd0-92c1da7be81f</t>
+          <t>2563f498-e2d3-42ea-9e7b-5517881a06a2</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2482,22 +2482,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Permissões</t>
+          <t>Recuperação</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os usuários recebam o nível mínimo de acesso necessário para concluir suas funções de trabalho</t>
+          <t>Preparar um plano de resposta para investigar e reparar um banco de dados após um evento de violação</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t>O princípio do privilégio mínimo afirma que os usuários não devem ter mais privilégios do que o necessário para concluir suas tarefas. Os usuários de banco de dados e servidor com alto privilégio podem executar muitas atividades de configuração e manutenção no banco de dados e também podem descartar bancos de dados na instância SQL do Azure. Rastrear proprietários de bancos de dados e contas privilegiadas é importante para evitar ter permissão excessiva.</t>
+          <t>Dependendo do tipo de adulteração, há casos em que você pode reparar o livro-razão sem perder dados. No artigo contido na coluna --Mais informações-, diferentes cenários e técnicas de recuperação são descritos.</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2513,7 +2513,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#implement-principle-of-least-privilege</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-how-to-recover-after-tampering</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2521,7 +2521,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5fe5281f-f0f9-4842-a682-8baf18bd8316</t>
+          <t>804fc554-6554-4842-91c1-713b32f99902</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2532,22 +2532,22 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Auditoria</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Revisar e reconciliar o acesso do usuário do Banco de Dados SQL do Azure regularmente usando relatórios e revisão de acesso do Azure AD</t>
+          <t>Verifique se a Auditoria do Banco de Dados SQL do Azure está habilitada no nível do servidor</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>O SQL do Azure usa contas do Azure Active Directory (Azure AD) para gerenciar seus recursos, revisar contas de usuário e acessar atribuições regularmente para garantir que as contas e seu acesso sejam válidos. Você pode usar o Azure AD e acessar revisões para revisar associações de grupo, acesso a aplicativos corporativos e atribuições de função.</t>
+          <t>A Auditoria do Banco de Dados SQL do Azure rastreia eventos de banco de dados e os grava em um log de auditoria em sua conta de armazenamento do Azure. A auditoria ajuda você a entender a atividade do banco de dados e a obter informações sobre discrepâncias e anomalias que podem indicar preocupações comerciais ou suspeitas de violações de segurança, além de ajudá-lo a atender à conformidade normativa. Por padrão, a diretiva de auditoria inclui todas as ações (consultas, procedimentos armazenados e logons bem-sucedidos e com falha) nos bancos de dados, o que pode resultar em alto volume de logs de auditoria. É recomendável que os clientes configurem a auditoria para diferentes tipos de ações e grupos de ações usando o PowerShell.</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
@@ -2563,7 +2563,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-3-review-and-reconcile-user-access-regularly</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2571,7 +2571,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>552416b1-e9d8-4acf-83ed-d167bb9b3744</t>
+          <t>4082e31d-35f4-4a49-8507-d3172cc930a6</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2582,27 +2582,27 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Auditoria</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Usar estações de trabalho de acesso privilegiado para acesso de administrador</t>
+          <t>Verifique se os logs de Auditoria do Banco de Dados SQL do Azure são copiados e protegidos no tipo de repositório selecionado</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que apenas estações de trabalho de acesso privilegiado altamente seguras ou o Bastião do Azure são usados e/ou que os dispositivos são verificados seguros antes de se conectarem usando um produto como o Intune.</t>
+          <t xml:space="preserve">Os logs de Auditoria do Banco de Dados SQL do Azure podem ser gravados em contas de armazenamento externas, no espaço de trabalho do Log Analytics ou no Hub de Eventos. Certifique-se de proteger o repositório de destino usando backups e configuração segura. Use a Identidade Gerenciada do Banco de Dados SQL do Azure para acessar o armazenamento e definir um período de retenção explícito. Não conceda permissões aos administradores para o repositório de log de auditoria. Use um armazenamento de destino diferente para --Habilitando a auditoria das operações de suporte da Microsoft--. </t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2613,7 +2613,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-6-use-privileged-access-workstations</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2621,7 +2621,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>a0af61fa-e714-4993-8f64-e1ae3bdb98a8</t>
+          <t>9b64bc50-b60f-4035-bf7a-28c4806dfb46</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2632,27 +2632,27 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Cofre</t>
+          <t>Auditoria</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Revisar e habilitar o acesso do Customer Lockbox para o Banco de Dados SQL do Azure pelo pessoal da Microsoft</t>
+          <t>Verifique se o Log de Atividades do Banco de Dados SQL do Azure é coletado e integrado aos logs de Auditoria</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>A maioria das operações, suporte e solução de problemas executados pelo pessoal e subprocessadores da Microsoft não requer acesso aos dados do cliente. Nas raras circunstâncias em que esse acesso é necessário, o Customer Lockbox para Microsoft Azure fornece uma interface para que os clientes analisem e aprovem ou rejeitem solicitações de acesso a dados de clientes.  Em cenários de suporte em que a Microsoft precisa acessar dados do cliente, o Banco de Dados SQL do Azure dá suporte ao Customer Lockbox para fornecer uma interface para que você revise e aprove ou rejeite solicitações de acesso a dados do cliente.</t>
+          <t>O log de atividades do Azure Monitor é um log de plataforma no Azure que fornece informações sobre eventos de nível de assinatura. O registro de atividades inclui informações como quando um recurso é modificado. É recomendável enviar esse log de atividades para o mesmo repositório de armazenamento externo que o Log de Auditoria do Banco de Dados SQL do Azure (conta de armazenamento, espaço de trabalho Análise de Log, Hub de Eventos).</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2663,7 +2663,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2671,7 +2671,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>37b6eb0f-553d-488f-8a8a-cb9bf97388ff</t>
+          <t>fcd34708-87ac-4efc-aaf6-57a47f76644a</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2682,27 +2682,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Permissões</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Verifique se aplicativos distintos receberão credenciais diferentes com permissões mínimas para acessar o Banco de Dados SQL do Azure</t>
+          <t>Verifique se os logs de Auditoria do Banco de Dados SQL do Azure estão sendo apresentados no SIEM/SOAR de suas organizações</t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t>As identidades (Usuários e SPNs) devem ter o escopo da menor quantidade de acesso necessária para executar a função.  Um número maior de SPNs com escopo restrito deve ser usado, em vez de ter um SPN com vários conjuntos de permissões não relacionadas. Por exemplo, se houver três aplicativos Web externos hospedados no local que fazem consultas ao Banco de Dados SQL do Azure, nem todos eles devem usar o mesmo SPN para essas atividades.  Em vez disso, cada um deles deve ter seu próprio SPN de escopo rígido.</t>
+          <t>Encaminhe todos os logs do SQL do Azure para o SIEM (Gerenciamento de Informações e Eventos de Segurança) e SOAR (Automação e Resposta de Orquestração de Segurança). Verifique se você está monitorando diferentes tipos de ativos do Azure em busca de possíveis ameaças e anomalias. Concentre-se em receber alertas de alta qualidade para reduzir os falsos positivos para os analistas classificarem. Os alertas podem ser obtidos a partir de dados de log, agentes ou outros dados.</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2713,7 +2713,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#im-3-use-azure-ad-single-sign-on-sso-for-application-access</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2721,7 +2721,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>7b5b55e5-4750-4920-be97-eb726c256a5c</t>
+          <t>f96e127e-9572-453a-b325-ff89ae9f6b44</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2732,22 +2732,22 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Se a prova criptográfica da integridade dos dados for um requisito crítico, o recurso Ledger deve ser considerado</t>
+          <t>Verifique se os dados do Log de Atividades do Banco de Dados SQL do Azure são apresentados em seu SIEM/SOAR</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>O recurso Ledger fornece recursos de evidência de violação em seu banco de dados. Você pode atestar criptograficamente a outras partes, como auditores ou outras partes comerciais, que seus dados não foram adulterados. O Ledger ajuda a proteger os dados de qualquer invasor ou usuário com alto privilégio, incluindo administradores de banco de dados (DBAs), administradores de sistema e administradores de nuvem.</t>
+          <t>Encaminhe todos os logs do SQL do Azure para o SIEM (Gerenciamento de Informações e Eventos de Segurança) e SOAR (Automação e Resposta de Orquestração de Segurança), que podem ser usados para configurar detecções de ameaças personalizadas. Verifique se você está monitorando diferentes tipos de ativos do Azure em busca de possíveis ameaças e anomalias. Concentre-se em receber alertas de alta qualidade para reduzir os falsos positivos para os analistas classificarem. Os alertas podem ser obtidos a partir de dados de log, agentes ou outros dados.</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
@@ -2763,7 +2763,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2771,7 +2771,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2563f498-e2d3-42ea-9e7b-5517881a06a2</t>
+          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2782,22 +2782,22 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Resumo do banco de dados</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Usar o Razão Confidencial do Azure para armazenar resumos de banco de dados somente se recursos de segurança avançados forem necessários</t>
+          <t>Verifique se você tem planos de resposta para eventos de log de auditoria mal-intencionados ou aberrantes</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>O hash do bloco mais recente no livro-razão do banco de dados é chamado de resumo do banco de dados. Ele representa o estado de todas as tabelas contábeis no banco de dados no momento em que o bloco foi gerado. Gerar um resumo de banco de dados é eficiente, porque envolve o cálculo apenas dos hashes dos blocos que foram anexados recentemente. O Razão Confidencial do Azure é um dos armazenamentos com suporte, pode ser usado e dá suporte à geração e ao armazenamento automáticos de resumos de banco de dados. O Azure Ledger fornece recursos de segurança avançados, como a Prova de Livro-Razão Blockchain e Enclaves de Hardware Confidenciais. Use-o somente se recursos de segurança avançados forem necessários, caso contrário, reverta para o armazenamento do Azure.</t>
+          <t>A equipe do Centro de Operações de Segurança (SOC) deve criar um plano de resposta a incidentes (manuais ou respostas manuais) para investigar e mitigar adulterações, atividades maliciosas e outros comportamentos anômalos.</t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
@@ -2813,7 +2813,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/technology-choices/multiparty-computing-service#confidential-ledger-and-azure-blob-storage</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2821,7 +2821,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>0e853380-50ba-4bce-b2fd-5c7391c85ecc</t>
+          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2832,27 +2832,27 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Resumo do banco de dados</t>
+          <t>Conectividade</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Se a conta de armazenamento do Azure for usada para armazenar resumos de banco de dados, verifique se a segurança está configurada corretamente</t>
+          <t>Revise os métodos de conectividade de Acesso Público versus Privado e selecione o apropriado para a carga de trabalho</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>O hash do bloco mais recente no livro-razão do banco de dados é chamado de resumo do banco de dados. Ele representa o estado de todas as tabelas contábeis no banco de dados no momento em que o bloco foi gerado. Gerar um resumo de banco de dados é eficiente, porque envolve o cálculo apenas dos hashes dos blocos que foram anexados recentemente. O recurso Armazenamento de Blobs do Azure com Armazenamento Imutável pode ser usado e dá suporte à geração e ao armazenamento automáticos de resumos de banco de dados. Para evitar a violação de seus arquivos de resumo, configure e bloqueie uma política de retenção para seu contêiner.</t>
+          <t>Quando você cria um servidor lógico a partir do portal do Azure para o Banco de Dados SQL do Azure, o resultado é um ponto de extremidade público que é visível e acessível pela rede pública (Acesso Público). Em seguida, você pode limitar a conectividade com base nas regras de firewall e no Ponto de Extremidade de Serviço. Você também pode configurar a conectividade privada limitando apenas as conexões a redes internas usando o Ponto de Extremidade Privado (Acesso Privado). O Acesso Privado usando o Ponto de Extremidade Privado deve ser o padrão, a menos que se aplique um caso de negócios ou um motivo de desempenho/técnico que não possa suportá-lo. O uso de pontos de extremidade privados tem implicações de desempenho que precisam ser consideradas e avaliadas.</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2863,7 +2863,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-digest-management</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2871,7 +2871,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>afefb2d3-95da-4ac9-acf5-33d18b32ef9a</t>
+          <t>2c6d356a-1784-475b-a42c-ec187dc8c925</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2882,27 +2882,27 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Integridade</t>
+          <t>Conectividade</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Agende o processo de verificação do Ledger regularmente para verificar a integridade dos dados</t>
+          <t>Manter a Política de Conexão do Banco de Dados SQL do Azure padrão se não for exigida e justificada de forma diferente</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>O Ledger fornece uma forma de integridade de dados chamada integridade direta, que fornece evidências de adulteração de dados em dados em suas tabelas contábeis. O processo de verificação do banco de dados leva como entrada um ou mais resumos de banco de dados gerados anteriormente. Em seguida, ele recalcula os hashes armazenados no livro-razão do banco de dados com base no estado atual das tabelas contábeis. Se os hashes computados não corresponderem aos resumos de entrada, a verificação falhará. A falha indica que os dados foram adulterados. O processo de verificação relata todas as inconsistências que detecta.</t>
+          <t>IMPORTANTE: As conexões com o ponto de extremidade privado oferecem suporte apenas ao Proxy como a política de conexão. Ao usar pontos de extremidade privados, as conexões são intermediadas por proxy por meio do gateway do Banco de Dados SQL do Azure para os nós do banco de dados. Os clientes não terão uma conexão direta.</t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2913,7 +2913,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-database-verification</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-architecture</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2921,7 +2921,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f8d4ffda-8aac-4cc6-b72b-c81cb8625420</t>
+          <t>557b3ce5-bada-4296-8d52-a2d447bc1718</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2932,27 +2932,27 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Recuperação</t>
+          <t>Conectividade</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Preparar um plano de resposta para investigar e reparar um banco de dados após um evento de violação</t>
+          <t>Verifique se a configuração Permitir que os Serviços e Recursos do Azure acessem este Servidor está desabilitada no firewall do Banco de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t>Dependendo do tipo de adulteração, há casos em que você pode reparar o livro-razão sem perder dados. No artigo contido na coluna --Mais informações-, diferentes cenários e técnicas de recuperação são descritos.</t>
+          <t>Essa opção configura o firewall para permitir todas as conexões do Azure, incluindo conexões das assinaturas de outros clientes. Se você selecionar essa opção, verifique se as permissões de login e de usuário limitam o acesso somente a usuários autorizados. Se não for estritamente necessário, mantenha essa configuração como OFF.</t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2963,14 +2963,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-how-to-recover-after-tampering</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>804fc554-6554-4842-91c1-713b32f99902</t>
+          <t>f48efacf-4405-4e8d-9dd0-16c5302ed082</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2981,22 +2981,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Log</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Auditoria</t>
+          <t>Controle de saída</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Verifique se a Auditoria do Banco de Dados SQL do Azure está habilitada no nível do servidor</t>
+          <t>Bloquear ou restringir chamadas de API REST de saída para pontos de extremidade externos</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>A Auditoria do Banco de Dados SQL do Azure rastreia eventos de banco de dados e os grava em um log de auditoria em sua conta de armazenamento do Azure. A auditoria ajuda você a entender a atividade do banco de dados e a obter informações sobre discrepâncias e anomalias que podem indicar preocupações comerciais ou suspeitas de violações de segurança, além de ajudá-lo a atender à conformidade normativa. Por padrão, a diretiva de auditoria inclui todas as ações (consultas, procedimentos armazenados e logons bem-sucedidos e com falha) nos bancos de dados, o que pode resultar em alto volume de logs de auditoria. É recomendável que os clientes configurem a auditoria para diferentes tipos de ações e grupos de ações usando o PowerShell.</t>
+          <t>O Banco de Dados SQL do Azure tem um novo recurso interno que permite a integração nativa com pontos de extremidade REST externos. Isso significa que a integração do Banco de Dados SQL do Azure com o Azure Functions, os Aplicativos Lógicos do Azure, os Serviços Cognitivos, os Hubs de Eventos, a Grade de Eventos, os Contêineres do Azure, o Gerenciamento de API e, em geral, qualquer ponto de extremidade REST ou mesmo GraphQL. Se não for restringido corretamente, o código dentro de um banco de dados do Banco de Dados SQL do Azure poderá aproveitar esse mecanismo para exfiltrar dados. Se não for estritamente necessário, recomenda-se bloquear ou restringir esse recurso usando as Regras de Firewall de Saída.</t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3012,7 +3012,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/system-stored-procedures/sp-invoke-external-rest-endpoint-transact-sql</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3020,7 +3020,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>4082e31d-35f4-4a49-8507-d3172cc930a6</t>
+          <t>cb3274a7-e36d-46f6-8de5-46d30c8dde8e</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3031,27 +3031,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Log</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Auditoria</t>
+          <t>Controle de saída</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os logs de Auditoria do Banco de Dados SQL do Azure são copiados e protegidos no tipo de repositório selecionado</t>
+          <t>Se o acesso à rede de saída for necessário, é recomendável configurar restrições de rede de saída usando o recurso de controle interno do Banco de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os logs de Auditoria do Banco de Dados SQL do Azure podem ser gravados em contas de armazenamento externas, no espaço de trabalho do Log Analytics ou no Hub de Eventos. Certifique-se de proteger o repositório de destino usando backups e configuração segura. Use a Identidade Gerenciada do Banco de Dados SQL do Azure para acessar o armazenamento e definir um período de retenção explícito. Não conceda permissões aos administradores para o repositório de log de auditoria. Use um armazenamento de destino diferente para --Habilitando a auditoria das operações de suporte da Microsoft--. </t>
+          <t>As regras de firewall de saída limitam o tráfego de rede do servidor lógico do Banco de Dados SQL do Azure a uma lista definida pelo cliente de contas de Armazenamento do Azure e servidores lógicos do Banco de Dados SQL do Azure. Qualquer tentativa de acessar contas de armazenamento ou bancos de dados que não estejam nessa lista é negada.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3062,7 +3062,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/outbound-firewall-rule-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3070,7 +3070,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>9b64bc50-b60f-4035-bf7a-28c4806dfb46</t>
+          <t>a566dd3d-314e-4a94-9378-102c42d82b38</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3081,22 +3081,22 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Log</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>SIEM/SOAR</t>
+          <t>Acesso Privado</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os logs de Auditoria do Banco de Dados SQL do Azure estão sendo apresentados no SIEM/SOAR de suas organizações</t>
+          <t>Se a conectividade de Acesso Privado for usada, verifique se você está usando as listas de verificação Ponto de Extremidade Privado, Rede Virtual do Azure, Firewall do Azure e Grupo de Segurança de Rede do Azure</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t>Encaminhe todos os logs do SQL do Azure para o SIEM (Gerenciamento de Informações e Eventos de Segurança) e SOAR (Automação e Resposta de Orquestração de Segurança). Verifique se você está monitorando diferentes tipos de ativos do Azure em busca de possíveis ameaças e anomalias. Concentre-se em receber alertas de alta qualidade para reduzir os falsos positivos para os analistas classificarem. Os alertas podem ser obtidos a partir de dados de log, agentes ou outros dados.</t>
+          <t>O Ponto de Extremidade Privado é criado dentro de uma sub-rede em uma Rede Virtual do Azure. A configuração de segurança adequada deve ser aplicada também ao ambiente de rede que o contém, incluindo NSG/ASG, UDR, firewall, monitoramento e auditoria.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
@@ -3112,14 +3112,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>f96e127e-9572-453a-b325-ff89ae9f6b44</t>
+          <t>246cd832-f550-4af0-9c74-ca9baeeb8860</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3130,27 +3130,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Log</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Auditoria</t>
+          <t>Acesso Privado</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Verifique se o Log de Atividades do Banco de Dados SQL do Azure é coletado e integrado aos logs de Auditoria</t>
+          <t>Se o Ponto de Extremidade Privado (Acesso Privado) for usado, considere desabilitar a conectividade do Acesso Público</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>O log de atividades do Azure Monitor é um log de plataforma no Azure que fornece informações sobre eventos de nível de assinatura. O registro de atividades inclui informações como quando um recurso é modificado. É recomendável enviar esse log de atividades para o mesmo repositório de armazenamento externo que o Log de Auditoria do Banco de Dados SQL do Azure (conta de armazenamento, espaço de trabalho Análise de Log, Hub de Eventos).</t>
+          <t>Ao adicionar uma conexão de Ponto de Extremidade Privado, o roteamento público para o servidor lógico não é bloqueado por padrão. No painel --Firewall e redes virtuais-- , a configuração --Negar acesso à rede pública-- não está selecionada por padrão. Para desabilitar o acesso à rede pública, certifique-se de selecionar --Negar acesso à rede pública--.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3161,14 +3161,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>fcd34708-87ac-4efc-aaf6-57a47f76644a</t>
+          <t>3a0808ee-ea7a-47ab-bdce-920a6a2b3881</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3179,22 +3179,22 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Log</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>SIEM/SOAR</t>
+          <t>Acesso Privado</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os dados do Log de Atividades do Banco de Dados SQL do Azure são apresentados em seu SIEM/SOAR</t>
+          <t>Se o Ponto de Extremidade Privado (Acesso Privado) for usado, aplique o NSG e, eventualmente, o ASG para limitar os intervalos de endereços IP de origem de entrada</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t>Encaminhe todos os logs do SQL do Azure para o SIEM (Gerenciamento de Informações e Eventos de Segurança) e SOAR (Automação e Resposta de Orquestração de Segurança), que podem ser usados para configurar detecções de ameaças personalizadas. Verifique se você está monitorando diferentes tipos de ativos do Azure em busca de possíveis ameaças e anomalias. Concentre-se em receber alertas de alta qualidade para reduzir os falsos positivos para os analistas classificarem. Os alertas podem ser obtidos a partir de dados de log, agentes ou outros dados.</t>
+          <t>O NSG (Grupo de Segurança de Rede) e o ASG (Grupo de Segurança de Aplicativo) agora podem ser aplicados à sub-rede que contém Pontos de Extremidade Privados para restringir as conexões com o SQLDB do Azure com base em intervalos de IP de origem interna.</t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
@@ -3210,7 +3210,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/en-us/azure/private-link/private-endpoint-overview#network-security-of-private-endpoints</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3218,7 +3218,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
+          <t>8600527e-e8c4-4424-90ef-1f0dca0224f2</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3234,17 +3234,17 @@
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Acesso Público</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Revise os métodos de conectividade de Acesso Público versus Privado e selecione o apropriado para a carga de trabalho</t>
+          <t>Se a conectividade de Acesso Público for usada, aproveite o Ponto de Extremidade de Serviço para restringir o acesso de Redes Virtuais do Azure selecionadas</t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>Quando você cria um servidor lógico a partir do portal do Azure para o Banco de Dados SQL do Azure, o resultado é um ponto de extremidade público que é visível e acessível pela rede pública (Acesso Público). Em seguida, você pode limitar a conectividade com base nas regras de firewall e no Ponto de Extremidade de Serviço. Você também pode configurar a conectividade privada limitando apenas as conexões a redes internas usando o Ponto de Extremidade Privado (Acesso Privado). O Acesso Privado usando o Ponto de Extremidade Privado deve ser o padrão, a menos que se aplique um caso de negócios ou um motivo de desempenho/técnico que não possa suportá-lo.</t>
+          <t>O Ponto de Extremidade do Serviço de Rede Virtual do Azure é a solução preferida se você quiser estabelecer uma conexão direta com os nós de back-end do Banco de Dados SQL do Azure usando a política de Redireccionamento. Isso permitirá o acesso no modo de alto desempenho.</t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
@@ -3260,7 +3260,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview?view=azuresql#ip-vs-virtual-network-firewall-rules</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3268,7 +3268,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2c6d356a-1784-475b-a42c-ec187dc8c925</t>
+          <t>55187443-6852-4fbd-99c6-ce303597ca7f</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3284,22 +3284,22 @@
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Acesso Público</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Manter a Política de Conexão do Banco de Dados SQL do Azure padrão se não for exigida e justificada de forma diferente</t>
+          <t>Se a conectividade de Acesso Público for usada, verifique se apenas IPs conhecidos específicos são adicionados ao firewall</t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>IMPORTANTE: As conexões com o ponto de extremidade privado oferecem suporte apenas ao Proxy como a política de conexão. Ao usar pontos de extremidade privados, as conexões são intermediadas por proxy por meio do gateway do Banco de Dados SQL do Azure para os nós do banco de dados. Os clientes não terão uma conexão direta.</t>
+          <t>O firewall do Banco de Dados SQL do Azure permite que você especifique intervalos de endereços IP dos quais as comunicações são aceitas. Essa abordagem é adequada para endereços IP estáveis que estão fora da rede privada do Azure.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3310,7 +3310,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-architecture</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3318,7 +3318,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>557b3ce5-bada-4296-8d52-a2d447bc1718</t>
+          <t>a73e32da-b3f4-4960-b5ec-2f42a557bf31</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3334,22 +3334,22 @@
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Acesso Privado</t>
+          <t>Acesso Público</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Se a conectividade de Acesso Privado for usada, verifique se você está usando as listas de verificação Ponto de Extremidade Privado, Rede Virtual do Azure, Firewall do Azure e Grupo de Segurança de Rede do Azure</t>
+          <t>Se a conectividade do Acesso Público for usada e controlada pelas regras de firewall do Banco de Dados SQL do Azure, use regras IP no nível do banco de dados sobre as regras IP no nível do servidor</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>O Ponto de Extremidade Privado é criado dentro de uma sub-rede em uma Rede Virtual do Azure. A configuração de segurança adequada deve ser aplicada também ao ambiente de rede que o contém, incluindo NSG/ASG, UDR, firewall, monitoramento e auditoria.</t>
+          <t>Recomendamos que você use regras de firewall IP no nível do banco de dados sempre que possível. Essa prática aumenta a segurança e torna seu banco de dados mais portátil. Use regras de firewall IP no nível do servidor para administradores. Use-os também quando tiver muitos bancos de dados com os mesmos requisitos de acesso e não quiser configurar cada banco de dados individualmente.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3360,14 +3360,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/firewall-configure</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>246cd832-f550-4af0-9c74-ca9baeeb8860</t>
+          <t>e0f31ac9-35c8-4bfd-9865-edb60ffc6768</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3378,27 +3378,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Acesso privilegiado</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Acesso Privado</t>
+          <t>Cofre</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Se o Ponto de Extremidade Privado (Acesso Privado) for usado, considere desabilitar a conectividade do Acesso Público</t>
+          <t>Revisar e habilitar o acesso do Customer Lockbox para o Banco de Dados SQL do Azure pelo pessoal da Microsoft</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>Ao adicionar uma conexão de Ponto de Extremidade Privado, o roteamento público para o servidor lógico não é bloqueado por padrão. No painel --Firewall e redes virtuais-- , a configuração --Negar acesso à rede pública-- não está selecionada por padrão. Para desabilitar o acesso à rede pública, certifique-se de selecionar --Negar acesso à rede pública--.</t>
+          <t>A maioria das operações, suporte e solução de problemas executados pelo pessoal e subprocessadores da Microsoft não requer acesso aos dados do cliente. Nas raras circunstâncias em que esse acesso é necessário, o Customer Lockbox para Microsoft Azure fornece uma interface para que os clientes analisem e aprovem ou rejeitem solicitações de acesso a dados de clientes.  Em cenários de suporte em que a Microsoft precisa acessar dados do cliente, o Banco de Dados SQL do Azure dá suporte ao Customer Lockbox para fornecer uma interface para que você revise e aprove ou rejeite solicitações de acesso a dados do cliente.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3409,7 +3409,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3417,7 +3417,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>3a0808ee-ea7a-47ab-bdce-920a6a2b3881</t>
+          <t>37b6eb0f-553d-488f-8a8a-cb9bf97388ff</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3428,22 +3428,22 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Acesso privilegiado</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Acesso Privado</t>
+          <t>Permissões</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Se o Ponto de Extremidade Privado (Acesso Privado) for usado, aplique o NSG e, eventualmente, o ASG para limitar os intervalos de endereços IP de origem de entrada</t>
+          <t>Certifique-se de que os usuários recebam o nível mínimo de acesso necessário para concluir suas funções de trabalho</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t>O NSG (Grupo de Segurança de Rede) e o ASG (Grupo de Segurança de Aplicativo) agora podem ser aplicados à sub-rede que contém Pontos de Extremidade Privados para restringir as conexões com o SQLDB do Azure com base em intervalos de IP de origem interna.</t>
+          <t>O princípio do privilégio mínimo afirma que os usuários não devem ter mais privilégios do que o necessário para concluir suas tarefas. Os usuários de banco de dados e servidor com alto privilégio podem executar muitas atividades de configuração e manutenção no banco de dados e também podem descartar bancos de dados na instância SQL do Azure. Rastrear proprietários de bancos de dados e contas privilegiadas é importante para evitar ter permissão excessiva.</t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
@@ -3459,14 +3459,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/private-link/private-endpoint-overview#network-security-of-private-endpoints</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#implement-principle-of-least-privilege</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>8600527e-e8c4-4424-90ef-1f0dca0224f2</t>
+          <t>5fe5281f-f0f9-4842-a682-8baf18bd8316</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3477,27 +3477,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Acesso privilegiado</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Acesso Público</t>
+          <t>Permissões</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Se a conectividade de Acesso Público for usada, aproveite o Ponto de Extremidade de Serviço para restringir o acesso de Redes Virtuais do Azure selecionadas</t>
+          <t>Verifique se aplicativos distintos receberão credenciais diferentes com permissões mínimas para acessar o Banco de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>O Ponto de Extremidade do Serviço de Rede Virtual do Azure é a solução preferida se você quiser estabelecer uma conexão direta com os nós de back-end do Banco de Dados SQL do Azure usando a política de Redireccionamento. Isso permitirá o acesso no modo de alto desempenho.</t>
+          <t>As identidades (Usuários e SPNs) devem ter o escopo da menor quantidade de acesso necessária para executar a função.  Um número maior de SPNs com escopo restrito deve ser usado, em vez de ter um SPN com vários conjuntos de permissões não relacionadas. Por exemplo, se houver três aplicativos Web externos hospedados no local que fazem consultas ao Banco de Dados SQL do Azure, nem todos eles devem usar o mesmo SPN para essas atividades.  Em vez disso, cada um deles deve ter seu próprio SPN de escopo rígido.</t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3508,14 +3508,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview?view=azuresql#ip-vs-virtual-network-firewall-rules</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#im-3-use-azure-ad-single-sign-on-sso-for-application-access</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>55187443-6852-4fbd-99c6-ce303597ca7f</t>
+          <t>7b5b55e5-4750-4920-be97-eb726c256a5c</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3526,45 +3526,41 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Acesso Público</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Se a conectividade de Acesso Público for usada, verifique se apenas IPs conhecidos específicos são adicionados ao firewall</t>
-        </is>
-      </c>
-      <c r="D57" s="22" t="inlineStr">
-        <is>
-          <t>O firewall do Banco de Dados SQL do Azure permite que você especifique intervalos de endereços IP dos quais as comunicações são aceitas. Essa abordagem é adequada para endereços IP estáveis que estão fora da rede privada do Azure.</t>
-        </is>
-      </c>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+        </is>
+      </c>
+      <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>a73e32da-b3f4-4960-b5ec-2f42a557bf31</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3575,45 +3571,41 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Acesso Público</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Se a conectividade do Acesso Público for usada e controlada pelas regras de firewall do Banco de Dados SQL do Azure, use regras de IP no nível do banco de dados sobre as regras IP no nível do servidor sempre que possível</t>
-        </is>
-      </c>
-      <c r="D58" s="22" t="inlineStr">
-        <is>
-          <t>Recomendamos que você use regras de firewall IP no nível do banco de dados sempre que possível. Essa prática aumenta a segurança e torna seu banco de dados mais portátil. Use regras de firewall IP no nível do servidor para administradores. Use-os também quando tiver muitos bancos de dados com os mesmos requisitos de acesso e não quiser configurar cada banco de dados individualmente.</t>
-        </is>
-      </c>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+        </is>
+      </c>
+      <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/firewall-configure</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e0f31ac9-35c8-4bfd-9865-edb60ffc6768</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3624,45 +3616,41 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Verifique se a configuração Permitir que os Serviços e Recursos do Azure acessem este Servidor está desabilitada no firewall do Banco de Dados SQL do Azure</t>
-        </is>
-      </c>
-      <c r="D59" s="22" t="inlineStr">
-        <is>
-          <t>Essa opção configura o firewall para permitir todas as conexões do Azure, incluindo conexões das assinaturas de outros clientes. Se você selecionar essa opção, verifique se as permissões de login e de usuário limitam o acesso somente a usuários autorizados. Se não for estritamente necessário, mantenha essa configuração como OFF.</t>
-        </is>
-      </c>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+        </is>
+      </c>
+      <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>f48efacf-4405-4e8d-9dd0-16c5302ed082</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3673,45 +3661,46 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Controle de saída</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Negar todas as permissões para chamadas de API REST de saída para pontos de extremidade externos</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="inlineStr">
-        <is>
-          <t>O Banco de Dados SQL do Azure tem um novo recurso interno que permite a integração nativa com pontos de extremidade REST externos. Isso significa que a integração do Banco de Dados SQL do Azure com o Azure Functions, os Aplicativos Lógicos do Azure, os Serviços Cognitivos, os Hubs de Eventos, a Grade de Eventos, os Contêineres do Azure, o Gerenciamento de API e, em geral, qualquer ponto de extremidade REST ou mesmo GraphQL. Se não for restringido corretamente, o código dentro de um banco de dados do Banco de Dados SQL do Azure poderá aproveitar esse mecanismo para exfiltrar dados. Se não for estritamente necessário, recomenda-se negar explicitamente as permissões necessárias para usar esse recurso.</t>
-        </is>
-      </c>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="n"/>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/system-stored-procedures/sp-invoke-external-rest-endpoint-transact-sql</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>cb3274a7-e36d-46f6-8de5-46d30c8dde8e</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3722,45 +3711,41 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Controle de saída</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Se o acesso à rede de saída for necessário, é recomendável configurar restrições de rede de saída usando o recurso de controle interno do Banco de Dados SQL do Azure</t>
-        </is>
-      </c>
-      <c r="D61" s="22" t="inlineStr">
-        <is>
-          <t>As regras de firewall de saída limitam o tráfego de rede do servidor lógico do Banco de Dados SQL do Azure a uma lista definida pelo cliente de contas de Armazenamento do Azure e servidores lógicos do Banco de Dados SQL do Azure. Qualquer tentativa de acessar contas de armazenamento ou bancos de dados que não estejam nessa lista é negada.</t>
-        </is>
-      </c>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+        </is>
+      </c>
+      <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/outbound-firewall-rule-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>a566dd3d-314e-4a94-9378-102c42d82b38</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -11824,7 +11809,7 @@
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F62" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/sqldb_security_checklist.pt.xlsx
+++ b/spreadsheet/sqldb_security_checklist.pt.xlsx
@@ -1100,17 +1100,17 @@
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Cofre da Chave do Azure</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Verifique se o SQLDB do Azure está tendo backups automatizados regulares</t>
+          <t>Proteja seus dados de backup com criptografia e armazene chaves com segurança no Cofre de Chaves do Azure</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t>O Banco de Dados SQL do Azure usa a tecnologia do SQL Server para criar backups completos a cada semana, backup diferencial a cada 12 a 24 horas e backup de log de transações a cada 5 a 10 minutos. Por padrão, o Banco de dados SQL armazena dados em blobs de armazenamento com redundância geográfica que são replicados para uma região emparelhada.</t>
+          <t>Certifique-se de que seus backups estejam protegidos contra ataques. Isso deve incluir a criptografia dos backups para proteger contra a perda de confidencialidade. Para backup de serviço regular do Azure, os dados de backup são criptografados automaticamente usando chaves gerenciadas pela plataforma do Azure. Você também pode optar por criptografar o backup usando uma chave gerenciada pelo cliente. Nesse caso, verifique se essa chave gerenciada pelo cliente no cofre de chaves também está no escopo de backup.</t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-1-ensure-regular-automated-backups</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-2-encrypt-backup-data</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>e2518261-b3bc-4bd1-b331-637fb2df833f</t>
+          <t>676f6951-0368-49e9-808d-c33a692c9a64</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Habilite o armazenamento de backup com redundância geográfica para proteger contra falhas em uma única região e perda de dados</t>
+          <t>Configurar backups automatizados do Banco de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t>Por padrão, o Banco de dados SQL armazena dados em blobs de armazenamento com redundância geográfica que são replicados para uma região emparelhada. Para o Banco de dados SQL, a redundância de armazenamento de backup pode ser configurada no momento da criação do banco de dados ou pode ser atualizada para um banco de dados existente; as alterações feitas em um banco de dados existente se aplicam somente a backups futuros.</t>
+          <t>O Banco de Dados SQL do Azure usa a tecnologia do SQL Server para criar backups completos a cada semana, backup diferencial a cada 12 a 24 horas e backup de log de transações a cada 5 a 10 minutos. Por padrão, o Banco de dados SQL armazena dados em blobs de armazenamento com redundância geográfica que são replicados para uma região emparelhada.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/automated-backups-overview?tabs=single-database&amp;view=azuresql#backup-storage-redundancy</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-1-ensure-regular-automated-backups</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>f8c7cda2-3ed7-43fb-a100-85dcd12a0ee4</t>
+          <t>e2518261-b3bc-4bd1-b331-637fb2df833f</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1200,22 +1200,22 @@
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>Cofre da Chave do Azure</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Proteja seus dados de backup com criptografia e armazene chaves com segurança no Cofre de Chaves do Azure</t>
+          <t>Habilite o armazenamento de backup com redundância geográfica para proteger contra falhas em uma única região e perda de dados</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que seus backups estejam protegidos contra ataques. Isso deve incluir a criptografia dos backups para proteger contra a perda de confidencialidade. Para backup de serviço regular do Azure, os dados de backup são criptografados automaticamente usando chaves gerenciadas pela plataforma do Azure. Você também pode optar por criptografar o backup usando uma chave gerenciada pelo cliente. Nesse caso, verifique se essa chave gerenciada pelo cliente no cofre de chaves também está no escopo de backup.</t>
+          <t>Por padrão, o Banco de dados SQL armazena dados em blobs de armazenamento com redundância geográfica que são replicados para uma região emparelhada. Para o Banco de dados SQL, a redundância de armazenamento de backup pode ser configurada no momento da criação do banco de dados ou pode ser atualizada para um banco de dados existente; as alterações feitas em um banco de dados existente se aplicam somente a backups futuros.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-2-encrypt-backup-data</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/automated-backups-overview?tabs=single-database&amp;view=azuresql#backup-storage-redundancy</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>676f6951-0368-49e9-808d-c33a692c9a64</t>
+          <t>f8c7cda2-3ed7-43fb-a100-85dcd12a0ee4</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,22 +1245,22 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Código</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>Controle do código-fonte e revisão de código</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Validar periodicamente todos os backups, incluindo chaves gerenciadas pelo cliente</t>
+          <t>Usar sistemas de Controle do Código-Fonte para armazenar, manter e revisar o código do aplicativo implantado no Banco de Dados SQLDB do Azure</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t>Recomenda-se que a validação da preparação do aplicativo para o fluxo de trabalho de recuperação seja executada periodicamente. Verificar o comportamento do aplicativo e as implicações da perda de dados e/ou a interrupção que o failover envolve é uma boa prática de engenharia. Também é um requisito para a maioria dos padrões do setor como parte da certificação de continuidade de negócios. A execução de um exercício de recuperação de desastres consiste em: (1) Simular a interrupção da camada de dados (2) Recuperar (3) Validar a integridade do aplicativo após a recuperação.</t>
+          <t>O código mal-intencionado pode potencialmente contornar os controles de segurança. Antes de implantar o código personalizado na produção, é essencial revisar o que está sendo implantado. Use uma ferramenta de banco de dados como o Azure Data Studio que dá suporte ao controle do código-fonte. Implementar ferramentas e lógica para análise de código, vulnerabilidade e verificação de credenciais.</t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#br-3-validate-all-backups-including-customer-managed-keys</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>a604bd0b-e62d-4037-8318-b62a476ea771</t>
+          <t>7ca9f006-d2a9-4652-951c-de8e4ac5e76e</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,22 +1295,22 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>BCDR</t>
+          <t>Descoberta e classificação de dados</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>Cofre da Chave do Azure</t>
+          <t>Descoberta e classificação de dados</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Reduza o risco de chaves perdidas do Cofre da Chave do Azure (AKV) usadas no Banco de Dados SQL do Azure</t>
+          <t>Planejar e configurar a Descoberta e Classificação de Dados para proteger os dados confidenciais</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que você tem medidas em vigor para prevenir e se recuperar da perda de chaves. Habilite a proteção de exclusão e limpeza suave no Cofre da Chave do Azure para proteger as chaves contra exclusão acidental ou maliciosa.</t>
+          <t>Em caso de requisitos de classificação, a Purview é a opção preferida. Use apenas a Descoberta e Classificação de Dados SQL caso o Purview não seja uma opção. Descubra colunas que potencialmente contêm dados confidenciais. O que é considerado dados confidenciais depende muito do cliente, da regulamentação de conformidade, etc., e precisa ser avaliado pelos usuários responsáveis por esses dados. Classifique as colunas para usar cenários avançados de auditoria e proteção baseados em sensibilidade. Revise os resultados da descoberta automatizada e finalize a classificação, se necessário.</t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
@@ -1326,17 +1326,13 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/key-vault/general/key-vault-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/data-discovery-and-classification-overview?view=azuresql#faq---advanced-classification-capabilities</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
-      <c r="L12" s="26" t="inlineStr">
-        <is>
-          <t>c7bb4dc5-4cd9-4215-a46d-9ddd2566f845</t>
-        </is>
-      </c>
+      <c r="L12" s="26" t="inlineStr"/>
       <c r="M12" s="26" t="n"/>
       <c r="N12" s="26" t="n"/>
       <c r="O12" s="26" t="n"/>
@@ -1345,22 +1341,22 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Descoberta e classificação de dados</t>
+          <t>Mascaramento de dados</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>Descoberta e classificação de dados</t>
+          <t>Mascaramento de dados</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Usar a Descoberta e Classificação de Dados do Banco de Dados SQL do Azure para descobrir, classificar, rotular e proteger os confidenciais</t>
+          <t>Use o mascaramento de dados para impedir o acesso não autorizado a dados de usuários não administradores se nenhuma criptografia for possível</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>Descubra colunas que potencialmente contêm dados confidenciais. O que é considerado dados confidenciais depende muito do cliente, da regulamentação de conformidade, etc., e precisa ser avaliado pelos usuários responsáveis por esses dados. Classifique as colunas para usar cenários avançados de auditoria e proteção baseados em sensibilidade. Revise os resultados da descoberta automatizada e finalize a classificação, se necessário.</t>
+          <t>O uso desse recurso é recomendado somente se a criptografia de coluna não for uma opção e houver um requisito específico para preservar tipos e formatos de dados. O mascaramento dinâmico de dados limita a exposição de dados confidenciais, mascarando-os para usuários não privilegiados. O mascaramento dinâmico de dados ajuda a impedir o acesso não autorizado a dados confidenciais, permitindo que os clientes designem a quantidade de dados confidenciais a serem revelados com impacto mínimo na camada de aplicativo.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
@@ -1376,13 +1372,17 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#identify-and-tag-sensitive-data</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/dynamic-data-masking-overview</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
-      <c r="L13" s="26" t="inlineStr"/>
+      <c r="L13" s="26" t="inlineStr">
+        <is>
+          <t>9391fd50-135e-453e-90a7-c1a23f88cc13</t>
+        </is>
+      </c>
       <c r="M13" s="26" t="n"/>
       <c r="N13" s="26" t="n"/>
       <c r="O13" s="26" t="n"/>
@@ -1391,27 +1391,27 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Descoberta e classificação de dados</t>
+          <t>Defensor</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Alcance</t>
+          <t>Proteção Avançada contra Ameaças</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Para esquemas de banco de dados complexos e avançados, ou para gerenciar em grande escala, o Microsoft Purview é altamente recomendado para Descoberta e Classificação de Dados</t>
+          <t>Revise e conclua a configuração da Proteção Avançada contra Ameaças (ATP)</t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t>Continuamos a oferecer suporte à Descoberta e Classificação de Dados SQL e incentivamos você a adotar o Microsoft Purview, que possui recursos mais avançados para impulsionar recursos avançados de classificação e governança de dados.</t>
+          <t>O SQL Advanced Threat Detection (ATP) fornece uma camada de segurança que detecta possíveis vulnerabilidades e atividades anômalas em bancos de dados, como ataques de injeção de SQL e padrões de comportamento incomuns. Quando uma ameaça potencial é detectada, a Detecção de Ameaças envia um alerta acionável em tempo real por email e no Microsoft Defender para Nuvem, que inclui etapas claras de investigação e correção para a ameaça específica.</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1422,7 +1422,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/data-discovery-and-classification-overview?view=azuresql#faq---advanced-classification-capabilities</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1430,7 +1430,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>e2e49f0c-ebab-4971-bc88-b9713080ce8d</t>
+          <t>4e52d73f-5d37-428f-b3a2-e6997e835979</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1441,27 +1441,27 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Descoberta e classificação de dados</t>
+          <t>Defensor</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Descoberta e classificação de dados</t>
+          <t>Defender para SQL do Azure</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Monitore regularmente o painel de classificação para obter uma avaliação precisa do estado de classificação do banco de dados</t>
+          <t>Habilitar o Microsoft Defender para SQL do Azure</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t>A Descoberta e Classificação de Dados é incorporada ao Banco de Dados SQL do Azure, à Instância Gerenciada do SQL do Azure e ao Azure Synapse Analytics. Ele fornece recursos básicos para descobrir, classificar, rotular e relatar os dados confidenciais em seus bancos de dados. Você pode exibir o estado de classificação do banco de dados em um painel detalhado no portal do Azure. Além disso, você pode baixar um relatório no formato Excel para usar para fins de conformidade e auditoria e outras necessidades.</t>
+          <t>Habilite o Microsoft Defender para SQL do Azure no nível de assinatura para integrar e proteger automaticamente todos os servidores e bancos de dados existentes e futuros. Quando você habilita no nível de assinatura, todos os bancos de dados no Banco de Dados SQL do Azure e na Instância Gerenciada SQL do Azure são protegidos. Você pode desativá-los individualmente, se desejar. Se você quiser gerenciar manualmente quais bancos de dados estão protegidos, desabilite no nível de assinatura e habilite cada banco de dados que deseja proteger.</t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1472,7 +1472,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/data-discovery-and-classification-overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/en-us/azure/azure-sql/database/azure-defender-for-sql?view=azuresql#enable-microsoft-defender-for-sql </t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1480,7 +1480,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>0b30c724-9d42-4294-9db5-b60b121384bc</t>
+          <t>dff87489-9edb-4cef-bdda-86e8212b2aa1</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1491,27 +1491,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Mascaramento de dados</t>
+          <t>Defensor</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Mascaramento de dados</t>
+          <t>Defender para SQL do Azure</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Use o mascaramento de dados para impedir o acesso não autorizado a dados de usuários não administradores se nenhuma criptografia for possível</t>
+          <t>Preparar um plano de resposta de segurança para reagir prontamente aos alertas SQL do Microsoft Defender para Azure</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>O uso desse recurso é recomendado somente se nenhuma estratégia de criptografia for viável e houver um requisito específico para preservar tipos e formatos de dados. O mascaramento dinâmico de dados limita a exposição de dados confidenciais, mascarando-os para usuários não privilegiados. O mascaramento dinâmico de dados ajuda a impedir o acesso não autorizado a dados confidenciais, permitindo que os clientes designem a quantidade de dados confidenciais a serem revelados com impacto mínimo na camada de aplicativo.</t>
+          <t>O Microsoft Defender para Azure SQL ATP detecta atividades anômalas que indicam tentativas incomuns e potencialmente prejudiciais de acessar ou explorar bancos de dados. Os alertas podem ser configurados e gerados e serão relatados no console do Defender for.</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1522,7 +1522,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/dynamic-data-masking-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1530,7 +1530,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>9391fd50-135e-453e-90a7-c1a23f88cc13</t>
+          <t>ca342fdf-d25a-4427-b105-fcd50ff8a0ea</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1546,17 +1546,17 @@
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Defender para SQL do Azure</t>
+          <t>Avaliação de vulnerabilidade</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Habilitar o Microsoft Defender para SQL do Azure no nível de assinatura</t>
+          <t>Configurar descobertas de Avaliação de Vulnerabilidade (VA) e recomendações de revisão</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Habilite o Microsoft Defender para SQL do Azure no nível de assinatura para integrar e proteger automaticamente todos os servidores e bancos de dados existentes e futuros. Quando você habilita no nível de assinatura, todos os bancos de dados no Banco de Dados SQL do Azure e na Instância Gerenciada SQL do Azure são protegidos. Você pode desativá-los individualmente, se desejar. Se você quiser gerenciar manualmente quais bancos de dados estão protegidos, desabilite no nível de assinatura e habilite cada banco de dados que deseja proteger.</t>
+          <t>A avaliação de vulnerabilidade do SQLDB do Azure é um serviço que fornece visibilidade do seu estado de segurança. A avaliação de vulnerabilidades inclui etapas acionáveis para resolver problemas de segurança e aprimorar a segurança do banco de dados. Ele pode ajudá-lo a monitorar um ambiente de banco de dados dinâmico onde as alterações são difíceis de controlar e melhorar sua postura de segurança SQL.</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1572,7 +1572,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/en-us/azure/azure-sql/database/azure-defender-for-sql?view=azuresql#enable-microsoft-defender-for-sql </t>
+          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-overview</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1580,7 +1580,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>dff87489-9edb-4cef-bdda-86e8212b2aa1</t>
+          <t>a6101ae7-534c-45ab-86fd-b34c55ea21ca</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1601,12 +1601,12 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Revisar e concluir a configuração da Avaliação de Vulnerabilidade (VA)</t>
+          <t>Revisar regularmente as descobertas e recomendações da Avaliação de Vulnerabilidade (VA) e preparar um plano para corrigir</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>A avaliação de vulnerabilidade do SQLDB do Azure é um serviço que fornece visibilidade do seu estado de segurança. A avaliação de vulnerabilidades inclui etapas acionáveis para resolver problemas de segurança e aprimorar a segurança do banco de dados. Ele pode ajudá-lo a monitorar um ambiente de banco de dados dinâmico onde as alterações são difíceis de controlar e melhorar sua postura de segurança SQL.</t>
+          <t>O Microsoft Defender para Nuvem fornece avaliação de vulnerabilidade para seus Bancos de Dados SQL do Azure. A avaliação de vulnerabilidades verifica seus bancos de dados em busca de vulnerabilidades de software e fornece uma lista de descobertas. Você pode usar as descobertas para corrigir vulnerabilidades de software e desabilitar as descobertas.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
@@ -1622,7 +1622,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-find?view=azuresql</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1630,7 +1630,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>a6101ae7-534c-45ab-86fd-b34c55ea21ca</t>
+          <t>c8c5f112-1e50-4f77-9264-8195b4cd61ac</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1641,27 +1641,27 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Defensor</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Proteção Avançada contra Ameaças</t>
+          <t>Sempre criptografado</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Revise e conclua a configuração da Proteção Avançada contra Ameaças (ATP)</t>
+          <t>Se a proteção de dados PII confidenciais de usuários administradores for um requisito fundamental, mas as limitações da Criptografia de Coluna não puderem ser toleradas, considere a adoção do Always Encrypted with Secure Enclaves</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t>O SQL Advanced Threat Detection (ATP) fornece uma camada de segurança que detecta possíveis vulnerabilidades e atividades anômalas em bancos de dados, como ataques de injeção de SQL e padrões de comportamento incomuns. Quando uma ameaça potencial é detectada, a Detecção de Ameaças envia um alerta acionável em tempo real por email e no Microsoft Defender para Nuvem, que inclui etapas claras de investigação e correção para a ameaça específica.</t>
+          <t>O Always Encrypted with Secure Enclaves expande os recursos de computação confidencial do Always Encrypted, permitindo criptografia in-loco e consultas confidenciais mais ricas. O Always Encrypted with Secure Enclaves aborda essas limitações, permitindo alguns cálculos em dados de texto sem formatação dentro de um enclave seguro no lado do servidor. O uso desse recurso é recomendado para os casos em que você precisa limitar o acesso de administrador e precisa que suas consultas ofereçam suporte a mais do que a correspondência de igualdade de colunas criptografadas.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1672,7 +1672,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/encryption/always-encrypted-enclaves</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1680,7 +1680,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>4e52d73f-5d37-428f-b3a2-e6997e835979</t>
+          <t>65d7e54a-10a6-4094-b673-9ff3809c9277</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1691,27 +1691,27 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Defensor</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Defender para SQL do Azure</t>
+          <t>Criptografia de coluna</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Preparar um plano de resposta de segurança para reagir prontamente aos alertas SQL do Microsoft Defender para Azure</t>
+          <t>Para proteger dados confidenciais de PII de usuários não administradores em colunas de tabela específicas, considere o uso de Criptografia de Coluna</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t>O Microsoft Defender para Azure SQL ATP detecta atividades anômalas que indicam tentativas incomuns e potencialmente prejudiciais de acessar ou explorar bancos de dados. Os alertas podem ser configurados e gerados e serão relatados no console do Defender for.</t>
+          <t>Com o Banco de Dados SQL do Azure, você pode aplicar criptografia simétrica a uma coluna de dados usando Transact-SQL. Essa abordagem é chamada de criptografia de coluna, porque você pode usá-la para criptografar colunas específicas com chaves de criptografia diferentes. Isso oferece uma capacidade de criptografia mais granular do que o TDE, que criptografa dados em páginas. Usando Sempre Criptografado para garantir que dados confidenciais não sejam expostos em texto sem formatação no Banco de Dados SQL do Azure ou na Instância Gerenciada SQL, mesmo na memória/em uso. O Always Encrypted protege os dados de administradores de banco de dados (DBAs) e administradores de nuvem (ou agentes mal-intencionados que podem se passar por usuários com privilégios altos, mas não autorizados) e oferece mais controle sobre quem pode acessar seus dados.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1722,7 +1722,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/threat-detection-configure</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#control-access-of-application-users-to-sensitive-data-through-encryption</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1730,7 +1730,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ca342fdf-d25a-4427-b105-fcd50ff8a0ea</t>
+          <t>c03ce136-e3d5-4e17-bf25-ed955ee480d3</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1741,22 +1741,22 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Defensor</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Avaliação de vulnerabilidade</t>
+          <t>Criptografia de dados transparente</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Revisar regularmente as descobertas e recomendações da Avaliação de Vulnerabilidade (VA) e preparar um plano para corrigir</t>
+          <t>Garantir que a Criptografia de Dados Transparente (TDE) seja mantida habilitada</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>O Microsoft Defender para Nuvem fornece avaliação de vulnerabilidade para seus Bancos de Dados SQL do Azure. A avaliação de vulnerabilidades verifica seus bancos de dados em busca de vulnerabilidades de software e fornece uma lista de descobertas. Você pode usar as descobertas para corrigir vulnerabilidades de software e desabilitar as descobertas.</t>
+          <t>Habilitada por padrão, a TDE (Transparent Data Encryption, criptografia transparente de dados) ajuda a proteger os arquivos de banco de dados contra a divulgação de informações, executando criptografia e descriptografia em tempo real do banco de dados, backups associados e arquivos de log de transações 'em repouso', sem exigir alterações no aplicativo.</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
@@ -1772,7 +1772,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/defender-for-cloud/sql-azure-vulnerability-assessment-find?view=azuresql</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1780,7 +1780,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>c8c5f112-1e50-4f77-9264-8195b4cd61ac</t>
+          <t>c614ac47-bebf-4061-b0a1-43e0c6b5e00d</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1791,22 +1791,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Código</t>
+          <t>Encriptação</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Controle do código-fonte e revisão de código</t>
+          <t>Criptografia de dados transparente</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Usar sistemas de Controle do Código-Fonte para armazenar, manter e revisar o código do aplicativo implantado no Banco de Dados SQLDB do Azure</t>
+          <t>Use chaves gerenciadas pelo cliente (CMK) no Cofre de Chaves do Azure (AKV) se precisar de maior transparência e controle granular sobre a proteção TDE</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>O código mal-intencionado pode potencialmente contornar os controles de segurança. Antes de implantar o código personalizado na produção, é essencial revisar o que está sendo implantado. Use uma ferramenta de banco de dados como o Azure Data Studio que dá suporte ao controle do código-fonte. Implementar ferramentas e lógica para análise de código, vulnerabilidade e verificação de credenciais.</t>
+          <t>Se for necessária a separação de funções no gerenciamento de chaves e dados dentro da organização, aproveite a CMK (Customer Managed Keys) para TDE (Transparent Data Encryption) para seu SQLDB do Azure e use o Cofre de Chaves do Azure para armazenar (consulte sua lista de verificação). Aproveite esse recurso quando você tiver requisitos de segurança rigorosos que não podem ser atendidos pelas chaves de serviço gerenciadas.</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1830,7 +1830,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>7ca9f006-d2a9-4652-951c-de8e4ac5e76e</t>
+          <t>2edb4165-4f54-47cc-a891-5c82c2f21e25</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1846,17 +1846,17 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Criptografia de dados transparente</t>
+          <t>Segurança da camada de transporte</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Garantir que a Criptografia de Dados Transparente (TDE) seja mantida habilitada</t>
+          <t>Impor a versão mínima do TLS à versão mais recente disponível</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Habilitada por padrão, a TDE (Transparent Data Encryption, criptografia transparente de dados) ajuda a proteger os arquivos de banco de dados contra a divulgação de informações, executando criptografia e descriptografia em tempo real do banco de dados, backups associados e arquivos de log de transações 'em repouso', sem exigir alterações no aplicativo.</t>
+          <t>A configuração de versão mínima de TLS (Transport Layer Security) permite que os clientes escolham qual versão do TLS seu banco de dados SQL usa. É possível alterar a versão mínima do TLS usando o portal do Azure, o Azure PowerShell e a CLI do Azure.</t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
@@ -1872,7 +1872,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-create-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-settings?source=recommendations&amp;view=azuresql&amp;tabs=azure-portal#minimal-tls-version</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1880,7 +1880,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>c614ac47-bebf-4061-b0a1-43e0c6b5e00d</t>
+          <t>7754b605-57fd-4bcb-8213-52c39d8e8225</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1891,22 +1891,22 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Criptografia de dados transparente</t>
+          <t>Azure Active Directory</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Use chaves gerenciadas pelo cliente (CMK) no Cofre de Chaves do Azure (AKV) se precisar de maior transparência e controle granular sobre a proteção TDE</t>
+          <t>Aproveitar a autenticação do Azure AD para conexões com os Bancos de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Se for necessária a separação de funções no gerenciamento de chaves e dados dentro da organização, aproveite a CMK (Customer Managed Keys) para TDE (Transparent Data Encryption) para seu SQLDB do Azure e use o Cofre de Chaves do Azure para armazenar (consulte sua lista de verificação). Aproveite esse recurso quando você tiver requisitos de segurança rigorosos que não podem ser atendidos pelas chaves de serviço gerenciadas.</t>
+          <t>Use a autenticação do Azure Active Directory (Azure AD) para gerenciamento centralizado de identidades. Use a Autenticação SQL somente se realmente necessário e documente como exceções.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/transparent-data-encryption-byok-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-overview</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1930,7 +1930,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2edb4165-4f54-47cc-a891-5c82c2f21e25</t>
+          <t>c9b8b6bf-2c6b-453d-b400-de9a43a549d7</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1941,27 +1941,27 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Criptografia em nível de célula</t>
+          <t>Azure Active Directory</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Para proteger dados confidenciais de PII de usuários não administradores em colunas de tabela específicas, considere o uso de CLE (Criptografia em Nível de Célula)</t>
+          <t>Criar um grupo separado do Azure AD com duas contas de administrador para cada servidor lógico do Banco de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t>Com o Banco de Dados SQL do Azure, você pode aplicar criptografia simétrica a uma coluna de dados usando Transact-SQL. Essa abordagem é chamada de criptografia em nível de célula ou CLE (criptografia em nível de coluna), porque você pode usá-la para criptografar colunas específicas ou até mesmo células específicas de dados com chaves de criptografia diferentes. Isso oferece uma capacidade de criptografia mais granular do que o TDE, que criptografa dados em páginas.</t>
+          <t>O uso de grupos do Azure AD simplifica o gerenciamento de permissões e tanto o proprietário do grupo quanto o proprietário do recurso podem adicionar/remover membros de/para o grupo. Crie um grupo separado para administradores do Azure AD para cada servidor lógico. Monitore as alterações de associação de grupo do Azure AD usando os relatórios de atividade de auditoria do Azure AD.</t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#control-access-of-application-users-to-sensitive-data-through-encryption</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#central-management-for-identities</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1980,7 +1980,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>c03ce136-e3d5-4e17-bf25-ed955ee480d3</t>
+          <t>29820254-1d14-4778-ae90-ff4aeba504a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1991,27 +1991,27 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Sempre criptografado</t>
+          <t>Azure Active Directory</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Para proteger dados confidenciais de PII de usuários administradores, considere o uso de Always Encrypted</t>
+          <t>Minimizar o uso de autenticação baseada em senha para aplicativos</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Use Sempre Criptografado para garantir que os dados confidenciais não sejam expostos em texto sem formatação no Banco de Dados SQL do Azure ou na Instância Gerenciada SQL, mesmo na memória/em uso. O Always Encrypted protege os dados de administradores de banco de dados (DBAs) e administradores de nuvem (ou agentes mal-intencionados que podem se passar por usuários com privilégios altos, mas não autorizados) e oferece mais controle sobre quem pode acessar seus dados.</t>
+          <t>Verifique se identidades gerenciadas atribuídas ao sistema e ao usuário distintas, dedicadas à função, com menos permissões atribuídas, sejam usadas para comunicação de serviços e aplicativos do Azure com os bancos de dados SQLDB do Azure.</t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#protect-sensitive-data-in-use-from-high-privileged-unauthorized-users</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#minimize-the-use-of-password-based-authentication-for-applications</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2030,7 +2030,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>d2f928aa-ccd3-4167-8c5d-35848428564b</t>
+          <t>df3a09ee-03bb-4198-8637-d141acf5f289</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2041,22 +2041,22 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Sempre criptografado</t>
+          <t>Identidades gerenciadas</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Se a proteção de dados PII confidenciais de usuários administradores for um requisito fundamental, mas as limitações do Always Encrypted não puderem ser toleradas, considere a adoção do Always Encrypted with Secure Enclaves</t>
+          <t>Atribuir ao Banco de Dados SQL do Azure uma identidade gerenciada para acesso a recursos de saída</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">O Always Encrypted with Secure Enclaves expande os recursos de computação confidencial do Always Encrypted, permitindo criptografia in-loco e consultas confidenciais mais ricas. O Always Encrypted with Secure Enclaves aborda essas limitações, permitindo alguns cálculos em dados de texto sem formatação dentro de um enclave seguro no lado do servidor. </t>
+          <t>As identidades gerenciadas atribuídas pelo sistema ou pelo usuário permitem que o SQLDB do Azure se autentique em outros serviços de nuvem (por exemplo, Cofre da Chave do Azure) sem armazenar credenciais no código. Uma vez habilitadas, todas as permissões necessárias podem ser concedidas por meio do controle de acesso baseado em função do Azure para a instância SQLDB específica do Azure. Não compartilhe identidades gerenciadas atribuídas pelo usuário em vários serviços, se não for estritamente necessário.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
@@ -2072,14 +2072,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/encryption/always-encrypted-enclaves</t>
+          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>65d7e54a-10a6-4094-b673-9ff3809c9277</t>
+          <t>69891194-5074-4e30-8f69-4efc3c580900</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2090,27 +2090,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Encriptação</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Segurança da camada de transporte</t>
+          <t>Senhas</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Impor a versão mínima do TLS à versão mais recente disponível</t>
+          <t>Minimizar o uso de autenticação baseada em senha para usuários</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t>A configuração de versão mínima de TLS (Transport Layer Security) permite que os clientes escolham qual versão do TLS seu banco de dados SQL usa. É possível alterar a versão mínima do TLS usando o portal do Azure, o Azure PowerShell e a CLI do Azure.</t>
+          <t>Use uma autenticação integrada do Azure AD que elimina o uso de senhas. Os métodos de autenticação baseados em senha são uma forma mais fraca de autenticação. As credenciais podem ser comprometidas ou distribuídas por engano. Use a autenticação de logon único usando credenciais do Windows. Federar o domínio do AD local com o Azure AD e usar a autenticação integrada do Windows (para computadores ingressados no domínio com o Azure AD).</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2121,16 +2121,12 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-settings?source=recommendations&amp;view=azuresql&amp;tabs=azure-portal#minimal-tls-version</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-configure?view=azuresql&amp;tabs=azure-powershell#active-directory-integrated-authentication</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
-      <c r="L28" s="26" t="inlineStr">
-        <is>
-          <t>7754b605-57fd-4bcb-8213-52c39d8e8225</t>
-        </is>
-      </c>
+      <c r="L28" s="26" t="inlineStr"/>
       <c r="M28" s="26" t="n"/>
       <c r="N28" s="26" t="n"/>
       <c r="O28" s="26" t="n"/>
@@ -2139,22 +2135,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Resumo do banco de dados</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Aproveitar a autenticação do Azure AD para conexões com os Bancos de Dados SQL do Azure</t>
+          <t>Usar o Razão Confidencial do Azure para armazenar resumos de banco de dados somente se recursos de segurança avançados forem necessários</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t>Use a autenticação do Azure Active Directory (Azure AD) para gerenciamento centralizado de identidades. Use a Autenticação SQL somente se realmente necessário e documente como exceções.</t>
+          <t>O hash do bloco mais recente no livro-razão do banco de dados é chamado de resumo do banco de dados. Ele representa o estado de todas as tabelas contábeis no banco de dados no momento em que o bloco foi gerado. Gerar um resumo de banco de dados é eficiente, porque envolve o cálculo apenas dos hashes dos blocos que foram anexados recentemente. O Razão Confidencial do Azure é um dos armazenamentos com suporte, pode ser usado e dá suporte à geração e ao armazenamento automáticos de resumos de banco de dados. O Azure Ledger fornece recursos de segurança avançados, como a Prova de Livro-Razão Blockchain e Enclaves de Hardware Confidenciais. Use-o somente se recursos de segurança avançados forem necessários, caso contrário, reverta para o armazenamento do Azure.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2170,14 +2166,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/technology-choices/multiparty-computing-service#confidential-ledger-and-azure-blob-storage</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c9b8b6bf-2c6b-453d-b400-de9a43a549d7</t>
+          <t>0e853380-50ba-4bce-b2fd-5c7391c85ecc</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2188,22 +2184,22 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Resumo do banco de dados</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Criar um grupo separado do Azure AD com duas contas de administrador para cada instância SQLDB</t>
+          <t>Se a conta de armazenamento do Azure for usada para armazenar resumos de banco de dados, verifique se a segurança está configurada corretamente</t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t>O uso de grupos do Azure AD simplifica o gerenciamento de permissões e tanto o proprietário do grupo quanto o proprietário do recurso podem adicionar/remover membros de/para o grupo. Crie um grupo separado para administradores do Azure AD para cada servidor ou instância gerenciada. Monitore as alterações de associação de grupo do Azure AD usando os relatórios de atividade de auditoria do Azure AD.</t>
+          <t>O hash do bloco mais recente no livro-razão do banco de dados é chamado de resumo do banco de dados. Ele representa o estado de todas as tabelas contábeis no banco de dados no momento em que o bloco foi gerado. Gerar um resumo de banco de dados é eficiente, porque envolve o cálculo apenas dos hashes dos blocos que foram anexados recentemente. O recurso Armazenamento de Blobs do Azure com Armazenamento Imutável pode ser usado e dá suporte à geração e ao armazenamento automáticos de resumos de banco de dados. Para evitar a violação de seus arquivos de resumo, configure e bloqueie uma política de retenção para seu contêiner.</t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
@@ -2219,14 +2215,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#central-management-for-identities</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-digest-management</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>29820254-1d14-4778-ae90-ff4aeba504a3</t>
+          <t>afefb2d3-95da-4ac9-acf5-33d18b32ef9a</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2237,22 +2233,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Integridade</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Habilitar MFA (Multi-Factor Authentication) no Azure AD usando CA (Acesso Condicional) para autenticação interativa</t>
+          <t>Agende o processo de verificação do Ledger regularmente para verificar a integridade dos dados</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>O Azure AD Multi-Factor Authentication (MFA) ajuda a fornecer segurança adicional, exigindo mais de uma forma de autenticação. Use o modo de autenticação Interativa do Azure AD para o Banco de Dados SQL do Azure e a Instância Gerenciada SQL do Azure, onde uma senha é solicitada interativamente, seguida pela Autenticação Multifator.</t>
+          <t>O Ledger fornece uma forma de integridade de dados chamada integridade direta, que fornece evidências de adulteração de dados em dados em suas tabelas contábeis. O processo de verificação do banco de dados leva como entrada um ou mais resumos de banco de dados gerados anteriormente. Em seguida, ele recalcula os hashes armazenados no livro-razão do banco de dados com base no estado atual das tabelas contábeis. Se os hashes computados não corresponderem aos resumos de entrada, a verificação falhará. A falha indica que os dados foram adulterados. O processo de verificação relata todas as inconsistências que detecta.</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2268,14 +2264,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-mfa-ssms-overview</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-database-verification</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>4bcb1d1c-7a32-455a-8456-ef22a0372240</t>
+          <t>f8d4ffda-8aac-4cc6-b72b-c81cb8625420</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2286,22 +2282,22 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Senhas</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Minimizar o uso de autenticação baseada em senha para usuários</t>
+          <t>Se a prova criptográfica da integridade dos dados for um requisito crítico, o recurso Ledger deve ser considerado</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Use uma autenticação integrada do Azure AD que elimina o uso de senhas. Os métodos de autenticação baseados em senha são uma forma mais fraca de autenticação. As credenciais podem ser comprometidas ou distribuídas por engano. Use a autenticação de logon único usando credenciais do Windows. Federar o domínio do AD local com o Azure AD e usar a autenticação integrada do Windows (para computadores ingressados no domínio com o Azure AD).</t>
+          <t>O recurso Ledger fornece recursos de evidência de violação em seu banco de dados. Você pode atestar criptograficamente a outras partes, como auditores ou outras partes comerciais, que seus dados não foram adulterados. O Ledger ajuda a proteger os dados de qualquer invasor ou usuário com alto privilégio, incluindo administradores de banco de dados (DBAs), administradores de sistema e administradores de nuvem.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
@@ -2317,13 +2313,17 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/authentication-aad-configure?view=azuresql&amp;tabs=azure-powershell#active-directory-integrated-authentication</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
-      <c r="L32" s="26" t="inlineStr"/>
+      <c r="L32" s="26" t="inlineStr">
+        <is>
+          <t>2563f498-e2d3-42ea-9e7b-5517881a06a2</t>
+        </is>
+      </c>
       <c r="M32" s="26" t="n"/>
       <c r="N32" s="26" t="n"/>
       <c r="O32" s="26" t="n"/>
@@ -2332,22 +2332,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Livro-razão</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>Recuperação</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Minimizar o uso de autenticação baseada em senha para aplicativos</t>
+          <t>Preparar um plano de resposta para investigar e reparar um banco de dados após um evento de violação</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>Verifique se identidades gerenciadas atribuídas ao sistema e ao usuário distintas, dedicadas à função, com menos permissões atribuídas, sejam usadas para comunicação de serviços e aplicativos do Azure com os bancos de dados SQLDB do Azure.</t>
+          <t>Dependendo do tipo de adulteração, há casos em que você pode reparar o livro-razão sem perder dados. No artigo contido na coluna --Mais informações-, diferentes cenários e técnicas de recuperação são descritos.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2363,7 +2363,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#minimize-the-use-of-password-based-authentication-for-applications</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-how-to-recover-after-tampering</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>df3a09ee-03bb-4198-8637-d141acf5f289</t>
+          <t>804fc554-6554-4842-91c1-713b32f99902</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2382,27 +2382,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Identidades gerenciadas</t>
+          <t>Auditoria</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Atribuir ao Banco de Dados SQL do Azure uma identidade gerenciada para acesso a recursos de saída</t>
+          <t>Verifique se a Auditoria do Banco de Dados SQL do Azure está habilitada no nível do servidor</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>As identidades gerenciadas atribuídas pelo sistema ou pelo usuário permitem que o SQLDB do Azure se autentique em outros serviços de nuvem (por exemplo, Cofre da Chave do Azure) sem armazenar credenciais no código. Uma vez habilitadas, todas as permissões necessárias podem ser concedidas por meio do controle de acesso baseado em função do Azure para a instância SQLDB específica do Azure. Não compartilhe identidades gerenciadas atribuídas pelo usuário em vários serviços, se não for estritamente necessário.</t>
+          <t>A Auditoria do Banco de Dados SQL do Azure rastreia eventos de banco de dados e os grava em um log de auditoria em sua conta de armazenamento do Azure. A auditoria ajuda você a entender a atividade do banco de dados e a obter informações sobre discrepâncias e anomalias que podem indicar preocupações comerciais ou suspeitas de violações de segurança, além de ajudá-lo a atender à conformidade normativa. Por padrão, a diretiva de auditoria inclui todas as ações (consultas, procedimentos armazenados e logons bem-sucedidos e com falha) nos bancos de dados, o que pode resultar em alto volume de logs de auditoria. É recomendável que os clientes configurem a auditoria para diferentes tipos de ações e grupos de ações usando o PowerShell.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2413,7 +2413,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2421,7 +2421,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>69891194-5074-4e30-8f69-4efc3c580900</t>
+          <t>4082e31d-35f4-4a49-8507-d3172cc930a6</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2432,27 +2432,27 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Auditoria</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Proteja e limite usuários altamente privilegiados que têm acesso ao Banco de Dados SQL do Azure usando o PIM (Gerenciamento de Identidade Privilegiada) e o acesso Just-in-time (JIT)</t>
+          <t>Verifique se os logs de Auditoria do Banco de Dados SQL do Azure são copiados e protegidos no tipo de repositório selecionado</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Você deve limitar o número de contas ou funções altamente privilegiadas e proteger essas contas em um nível elevado. Os usuários com esse privilégio podem, direta ou indiretamente, ler e modificar todos os recursos em seu ambiente do Azure. Você pode habilitar o acesso privilegiado just-in-time (JIT) aos recursos do Azure e ao Azure AD usando o Azure AD PIM. O JIT concede permissões temporárias para executar tarefas privilegiadas somente quando os usuários precisam. O PIM também pode gerar alertas de segurança quando há atividade suspeita ou não segura em sua organização do Azure AD.</t>
+          <t xml:space="preserve">Os logs de Auditoria do Banco de Dados SQL do Azure podem ser gravados em contas de armazenamento externas, no espaço de trabalho do Log Analytics ou no Hub de Eventos. Certifique-se de proteger o repositório de destino usando backups e configuração segura. Use a Identidade Gerenciada do Banco de Dados SQL do Azure para acessar o armazenamento e definir um período de retenção explícito. Não conceda permissões aos administradores para o repositório de log de auditoria. Use um armazenamento de destino diferente para --Habilitando a auditoria das operações de suporte da Microsoft--. </t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2463,7 +2463,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-1-protect-and-limit-highly-privileged-users</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2471,7 +2471,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>c496b249-94d4-4c04-acd0-92c1da7be81f</t>
+          <t>9b64bc50-b60f-4035-bf7a-28c4806dfb46</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2482,22 +2482,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Permissões</t>
+          <t>Auditoria</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que os usuários recebam o nível mínimo de acesso necessário para concluir suas funções de trabalho</t>
+          <t>Verifique se o Log de Atividades do Banco de Dados SQL do Azure é coletado e integrado aos logs de Auditoria</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t>O princípio do privilégio mínimo afirma que os usuários não devem ter mais privilégios do que o necessário para concluir suas tarefas. Os usuários de banco de dados e servidor com alto privilégio podem executar muitas atividades de configuração e manutenção no banco de dados e também podem descartar bancos de dados na instância SQL do Azure. Rastrear proprietários de bancos de dados e contas privilegiadas é importante para evitar ter permissão excessiva.</t>
+          <t>O log de atividades do Azure Monitor é um log de plataforma no Azure que fornece informações sobre eventos de nível de assinatura. O registro de atividades inclui informações como quando um recurso é modificado. É recomendável enviar esse log de atividades para o mesmo repositório de armazenamento externo que o Log de Auditoria do Banco de Dados SQL do Azure (conta de armazenamento, espaço de trabalho Análise de Log, Hub de Eventos).</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2513,7 +2513,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#implement-principle-of-least-privilege</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2521,7 +2521,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5fe5281f-f0f9-4842-a682-8baf18bd8316</t>
+          <t>fcd34708-87ac-4efc-aaf6-57a47f76644a</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2532,22 +2532,22 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Revisar e reconciliar o acesso do usuário do Banco de Dados SQL do Azure regularmente usando relatórios e revisão de acesso do Azure AD</t>
+          <t>Verifique se os logs de Auditoria do Banco de Dados SQL do Azure estão sendo apresentados no SIEM/SOAR de suas organizações</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t>O SQL do Azure usa contas do Azure Active Directory (Azure AD) para gerenciar seus recursos, revisar contas de usuário e acessar atribuições regularmente para garantir que as contas e seu acesso sejam válidos. Você pode usar o Azure AD e acessar revisões para revisar associações de grupo, acesso a aplicativos corporativos e atribuições de função.</t>
+          <t>Encaminhe todos os logs do SQL do Azure para o SIEM (Gerenciamento de Informações e Eventos de Segurança) e SOAR (Automação e Resposta de Orquestração de Segurança). Verifique se você está monitorando diferentes tipos de ativos do Azure em busca de possíveis ameaças e anomalias. Concentre-se em receber alertas de alta qualidade para reduzir os falsos positivos para os analistas classificarem. Os alertas podem ser obtidos a partir de dados de log, agentes ou outros dados.</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
@@ -2563,7 +2563,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-3-review-and-reconcile-user-access-regularly</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2571,7 +2571,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>552416b1-e9d8-4acf-83ed-d167bb9b3744</t>
+          <t>f96e127e-9572-453a-b325-ff89ae9f6b44</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2582,22 +2582,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Usar estações de trabalho de acesso privilegiado para acesso de administrador</t>
+          <t>Verifique se os dados do Log de Atividades do Banco de Dados SQL do Azure são apresentados em seu SIEM/SOAR</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t>Certifique-se de que apenas estações de trabalho de acesso privilegiado altamente seguras ou o Bastião do Azure são usados e/ou que os dispositivos são verificados seguros antes de se conectarem usando um produto como o Intune.</t>
+          <t>Encaminhe todos os logs do SQL do Azure para o SIEM (Gerenciamento de Informações e Eventos de Segurança) e SOAR (Automação e Resposta de Orquestração de Segurança), que podem ser usados para configurar detecções de ameaças personalizadas. Verifique se você está monitorando diferentes tipos de ativos do Azure em busca de possíveis ameaças e anomalias. Concentre-se em receber alertas de alta qualidade para reduzir os falsos positivos para os analistas classificarem. Os alertas podem ser obtidos a partir de dados de log, agentes ou outros dados.</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2613,7 +2613,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#pa-6-use-privileged-access-workstations</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2621,7 +2621,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>a0af61fa-e714-4993-8f64-e1ae3bdb98a8</t>
+          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2632,27 +2632,27 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Cofre</t>
+          <t>SIEM/SOAR</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Revisar e habilitar o acesso do Customer Lockbox para o Banco de Dados SQL do Azure pelo pessoal da Microsoft</t>
+          <t>Verifique se você tem planos de resposta para eventos de log de auditoria mal-intencionados ou aberrantes</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t>A maioria das operações, suporte e solução de problemas executados pelo pessoal e subprocessadores da Microsoft não requer acesso aos dados do cliente. Nas raras circunstâncias em que esse acesso é necessário, o Customer Lockbox para Microsoft Azure fornece uma interface para que os clientes analisem e aprovem ou rejeitem solicitações de acesso a dados de clientes.  Em cenários de suporte em que a Microsoft precisa acessar dados do cliente, o Banco de Dados SQL do Azure dá suporte ao Customer Lockbox para fornecer uma interface para que você revise e aprove ou rejeite solicitações de acesso a dados do cliente.</t>
+          <t>A equipe do Centro de Operações de Segurança (SOC) deve criar um plano de resposta a incidentes (manuais ou respostas manuais) para investigar e mitigar adulterações, atividades maliciosas e outros comportamentos anômalos.</t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2663,7 +2663,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2671,7 +2671,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>37b6eb0f-553d-488f-8a8a-cb9bf97388ff</t>
+          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2682,27 +2682,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Acesso privilegiado</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Permissões</t>
+          <t>Conectividade</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Verifique se aplicativos distintos receberão credenciais diferentes com permissões mínimas para acessar o Banco de Dados SQL do Azure</t>
+          <t>Revise os métodos de conectividade de Acesso Público versus Privado e selecione o apropriado para a carga de trabalho</t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t>As identidades (Usuários e SPNs) devem ter o escopo da menor quantidade de acesso necessária para executar a função.  Um número maior de SPNs com escopo restrito deve ser usado, em vez de ter um SPN com vários conjuntos de permissões não relacionadas. Por exemplo, se houver três aplicativos Web externos hospedados no local que fazem consultas ao Banco de Dados SQL do Azure, nem todos eles devem usar o mesmo SPN para essas atividades.  Em vez disso, cada um deles deve ter seu próprio SPN de escopo rígido.</t>
+          <t>Quando você cria um servidor lógico a partir do portal do Azure para o Banco de Dados SQL do Azure, o resultado é um ponto de extremidade público que é visível e acessível pela rede pública (Acesso Público). Em seguida, você pode limitar a conectividade com base nas regras de firewall e no Ponto de Extremidade de Serviço. Você também pode configurar a conectividade privada limitando apenas as conexões a redes internas usando o Ponto de Extremidade Privado (Acesso Privado). O Acesso Privado usando o Ponto de Extremidade Privado deve ser o padrão, a menos que se aplique um caso de negócios ou um motivo de desempenho/técnico que não possa suportá-lo. O uso de pontos de extremidade privados tem implicações de desempenho que precisam ser consideradas e avaliadas.</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2713,7 +2713,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#im-3-use-azure-ad-single-sign-on-sso-for-application-access</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2721,7 +2721,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>7b5b55e5-4750-4920-be97-eb726c256a5c</t>
+          <t>2c6d356a-1784-475b-a42c-ec187dc8c925</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2732,27 +2732,27 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>Conectividade</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Se a prova criptográfica da integridade dos dados for um requisito crítico, o recurso Ledger deve ser considerado</t>
+          <t>Manter a Política de Conexão do Banco de Dados SQL do Azure padrão se não for exigida e justificada de forma diferente</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>O recurso Ledger fornece recursos de evidência de violação em seu banco de dados. Você pode atestar criptograficamente a outras partes, como auditores ou outras partes comerciais, que seus dados não foram adulterados. O Ledger ajuda a proteger os dados de qualquer invasor ou usuário com alto privilégio, incluindo administradores de banco de dados (DBAs), administradores de sistema e administradores de nuvem.</t>
+          <t>IMPORTANTE: As conexões com o ponto de extremidade privado oferecem suporte apenas ao Proxy como a política de conexão. Ao usar pontos de extremidade privados, as conexões são intermediadas por proxy por meio do gateway do Banco de Dados SQL do Azure para os nós do banco de dados. Os clientes não terão uma conexão direta.</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2763,7 +2763,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-architecture</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2771,7 +2771,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2563f498-e2d3-42ea-9e7b-5517881a06a2</t>
+          <t>557b3ce5-bada-4296-8d52-a2d447bc1718</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2782,27 +2782,27 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Resumo do banco de dados</t>
+          <t>Conectividade</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Usar o Razão Confidencial do Azure para armazenar resumos de banco de dados somente se recursos de segurança avançados forem necessários</t>
+          <t>Verifique se a configuração Permitir que os Serviços e Recursos do Azure acessem este Servidor está desabilitada no firewall do Banco de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>O hash do bloco mais recente no livro-razão do banco de dados é chamado de resumo do banco de dados. Ele representa o estado de todas as tabelas contábeis no banco de dados no momento em que o bloco foi gerado. Gerar um resumo de banco de dados é eficiente, porque envolve o cálculo apenas dos hashes dos blocos que foram anexados recentemente. O Razão Confidencial do Azure é um dos armazenamentos com suporte, pode ser usado e dá suporte à geração e ao armazenamento automáticos de resumos de banco de dados. O Azure Ledger fornece recursos de segurança avançados, como a Prova de Livro-Razão Blockchain e Enclaves de Hardware Confidenciais. Use-o somente se recursos de segurança avançados forem necessários, caso contrário, reverta para o armazenamento do Azure.</t>
+          <t>Essa opção configura o firewall para permitir todas as conexões do Azure, incluindo conexões das assinaturas de outros clientes. Se você selecionar essa opção, verifique se as permissões de login e de usuário limitam o acesso somente a usuários autorizados. Se não for estritamente necessário, mantenha essa configuração como OFF.</t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2813,7 +2813,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/technology-choices/multiparty-computing-service#confidential-ledger-and-azure-blob-storage</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2821,7 +2821,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>0e853380-50ba-4bce-b2fd-5c7391c85ecc</t>
+          <t>f48efacf-4405-4e8d-9dd0-16c5302ed082</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2832,22 +2832,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Resumo do banco de dados</t>
+          <t>Controle de saída</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Se a conta de armazenamento do Azure for usada para armazenar resumos de banco de dados, verifique se a segurança está configurada corretamente</t>
+          <t>Bloquear ou restringir chamadas de API REST de saída para pontos de extremidade externos</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t>O hash do bloco mais recente no livro-razão do banco de dados é chamado de resumo do banco de dados. Ele representa o estado de todas as tabelas contábeis no banco de dados no momento em que o bloco foi gerado. Gerar um resumo de banco de dados é eficiente, porque envolve o cálculo apenas dos hashes dos blocos que foram anexados recentemente. O recurso Armazenamento de Blobs do Azure com Armazenamento Imutável pode ser usado e dá suporte à geração e ao armazenamento automáticos de resumos de banco de dados. Para evitar a violação de seus arquivos de resumo, configure e bloqueie uma política de retenção para seu contêiner.</t>
+          <t>O Banco de Dados SQL do Azure tem um novo recurso interno que permite a integração nativa com pontos de extremidade REST externos. Isso significa que a integração do Banco de Dados SQL do Azure com o Azure Functions, os Aplicativos Lógicos do Azure, os Serviços Cognitivos, os Hubs de Eventos, a Grade de Eventos, os Contêineres do Azure, o Gerenciamento de API e, em geral, qualquer ponto de extremidade REST ou mesmo GraphQL. Se não for restringido corretamente, o código dentro de um banco de dados do Banco de Dados SQL do Azure poderá aproveitar esse mecanismo para exfiltrar dados. Se não for estritamente necessário, recomenda-se bloquear ou restringir esse recurso usando as Regras de Firewall de Saída.</t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2863,7 +2863,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-digest-management</t>
+          <t>https://learn.microsoft.com/en-us/sql/relational-databases/system-stored-procedures/sp-invoke-external-rest-endpoint-transact-sql</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2871,7 +2871,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>afefb2d3-95da-4ac9-acf5-33d18b32ef9a</t>
+          <t>cb3274a7-e36d-46f6-8de5-46d30c8dde8e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2882,22 +2882,22 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Integridade</t>
+          <t>Controle de saída</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Agende o processo de verificação do Ledger regularmente para verificar a integridade dos dados</t>
+          <t>Se o acesso à rede de saída for necessário, é recomendável configurar restrições de rede de saída usando o recurso de controle interno do Banco de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>O Ledger fornece uma forma de integridade de dados chamada integridade direta, que fornece evidências de adulteração de dados em dados em suas tabelas contábeis. O processo de verificação do banco de dados leva como entrada um ou mais resumos de banco de dados gerados anteriormente. Em seguida, ele recalcula os hashes armazenados no livro-razão do banco de dados com base no estado atual das tabelas contábeis. Se os hashes computados não corresponderem aos resumos de entrada, a verificação falhará. A falha indica que os dados foram adulterados. O processo de verificação relata todas as inconsistências que detecta.</t>
+          <t>As regras de firewall de saída limitam o tráfego de rede do servidor lógico do Banco de Dados SQL do Azure a uma lista definida pelo cliente de contas de Armazenamento do Azure e servidores lógicos do Banco de Dados SQL do Azure. Qualquer tentativa de acessar contas de armazenamento ou bancos de dados que não estejam nessa lista é negada.</t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
@@ -2913,7 +2913,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-database-verification</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/outbound-firewall-rule-overview</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2921,7 +2921,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f8d4ffda-8aac-4cc6-b72b-c81cb8625420</t>
+          <t>a566dd3d-314e-4a94-9378-102c42d82b38</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2932,22 +2932,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Livro-razão</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Recuperação</t>
+          <t>Acesso Privado</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Preparar um plano de resposta para investigar e reparar um banco de dados após um evento de violação</t>
+          <t>Se a conectividade de Acesso Privado for usada, verifique se você está usando as listas de verificação Ponto de Extremidade Privado, Rede Virtual do Azure, Firewall do Azure e Grupo de Segurança de Rede do Azure</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t>Dependendo do tipo de adulteração, há casos em que você pode reparar o livro-razão sem perder dados. No artigo contido na coluna --Mais informações-, diferentes cenários e técnicas de recuperação são descritos.</t>
+          <t>O Ponto de Extremidade Privado é criado dentro de uma sub-rede em uma Rede Virtual do Azure. A configuração de segurança adequada deve ser aplicada também ao ambiente de rede que o contém, incluindo NSG/ASG, UDR, firewall, monitoramento e auditoria.</t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2963,14 +2963,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/security/ledger/ledger-how-to-recover-after-tampering</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>804fc554-6554-4842-91c1-713b32f99902</t>
+          <t>246cd832-f550-4af0-9c74-ca9baeeb8860</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2981,27 +2981,27 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Log</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Auditoria</t>
+          <t>Acesso Privado</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Verifique se a Auditoria do Banco de Dados SQL do Azure está habilitada no nível do servidor</t>
+          <t>Se o Ponto de Extremidade Privado (Acesso Privado) for usado, considere desabilitar a conectividade do Acesso Público</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>A Auditoria do Banco de Dados SQL do Azure rastreia eventos de banco de dados e os grava em um log de auditoria em sua conta de armazenamento do Azure. A auditoria ajuda você a entender a atividade do banco de dados e a obter informações sobre discrepâncias e anomalias que podem indicar preocupações comerciais ou suspeitas de violações de segurança, além de ajudá-lo a atender à conformidade normativa. Por padrão, a diretiva de auditoria inclui todas as ações (consultas, procedimentos armazenados e logons bem-sucedidos e com falha) nos bancos de dados, o que pode resultar em alto volume de logs de auditoria. É recomendável que os clientes configurem a auditoria para diferentes tipos de ações e grupos de ações usando o PowerShell.</t>
+          <t>Ao adicionar uma conexão de Ponto de Extremidade Privado, o roteamento público para o servidor lógico não é bloqueado por padrão. No painel --Firewall e redes virtuais-- , a configuração --Negar acesso à rede pública-- não está selecionada por padrão. Para desabilitar o acesso à rede pública, certifique-se de selecionar --Negar acesso à rede pública--.</t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3012,7 +3012,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3020,7 +3020,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>4082e31d-35f4-4a49-8507-d3172cc930a6</t>
+          <t>3a0808ee-ea7a-47ab-bdce-920a6a2b3881</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3031,27 +3031,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Log</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Auditoria</t>
+          <t>Acesso Privado</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os logs de Auditoria do Banco de Dados SQL do Azure são copiados e protegidos no tipo de repositório selecionado</t>
+          <t>Se o Ponto de Extremidade Privado (Acesso Privado) for usado, aplique o NSG e, eventualmente, o ASG para limitar os intervalos de endereços IP de origem de entrada</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Os logs de Auditoria do Banco de Dados SQL do Azure podem ser gravados em contas de armazenamento externas, no espaço de trabalho do Log Analytics ou no Hub de Eventos. Certifique-se de proteger o repositório de destino usando backups e configuração segura. Use a Identidade Gerenciada do Banco de Dados SQL do Azure para acessar o armazenamento e definir um período de retenção explícito. Não conceda permissões aos administradores para o repositório de log de auditoria. Use um armazenamento de destino diferente para --Habilitando a auditoria das operações de suporte da Microsoft--. </t>
+          <t>O NSG (Grupo de Segurança de Rede) e o ASG (Grupo de Segurança de Aplicativo) agora podem ser aplicados à sub-rede que contém Pontos de Extremidade Privados para restringir as conexões com o SQLDB do Azure com base em intervalos de IP de origem interna.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3062,7 +3062,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/private-link/private-endpoint-overview#network-security-of-private-endpoints</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3070,7 +3070,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>9b64bc50-b60f-4035-bf7a-28c4806dfb46</t>
+          <t>8600527e-e8c4-4424-90ef-1f0dca0224f2</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3081,22 +3081,22 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Log</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>SIEM/SOAR</t>
+          <t>Acesso Privado</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os logs de Auditoria do Banco de Dados SQL do Azure estão sendo apresentados no SIEM/SOAR de suas organizações</t>
+          <t>Aplicar NSG (Grupos de Segurança de Rede) e regras de firewall para restringir o acesso à sub-rede interna da Instância Gerenciada SQL do Azure</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t>Encaminhe todos os logs do SQL do Azure para o SIEM (Gerenciamento de Informações e Eventos de Segurança) e SOAR (Automação e Resposta de Orquestração de Segurança). Verifique se você está monitorando diferentes tipos de ativos do Azure em busca de possíveis ameaças e anomalias. Concentre-se em receber alertas de alta qualidade para reduzir os falsos positivos para os analistas classificarem. Os alertas podem ser obtidos a partir de dados de log, agentes ou outros dados.</t>
+          <t>Uma Instância Gerenciada (SQL MI) pode ser isolada dentro de uma rede virtual para impedir o acesso externo. Aplicativos e ferramentas que estão na mesma rede virtual ou emparelhada na mesma região podem acessá-la diretamente. Aplicativos e ferramentas que estão em regiões diferentes podem usar a conexão de rede virtual para rede virtual ou o emparelhamento de circuitos da Rota Expressa para estabelecer a conexão. O cliente deve usar NSG (Network Security Groups) e, eventualmente, firewalls internos, para restringir o acesso pela porta 1433 apenas a recursos que exijam acesso a uma instância gerenciada.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
@@ -3112,14 +3112,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/auditing-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/managed-instance/connectivity-architecture-overview</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>f96e127e-9572-453a-b325-ff89ae9f6b44</t>
+          <t>18123ef4-a0a6-45e3-87fe-7f454f65d975</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3130,27 +3130,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Log</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Auditoria</t>
+          <t>Acesso Público</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Verifique se o Log de Atividades do Banco de Dados SQL do Azure é coletado e integrado aos logs de Auditoria</t>
+          <t>Se a conectividade de Acesso Público for usada, aproveite o Ponto de Extremidade de Serviço para restringir o acesso de Redes Virtuais do Azure selecionadas</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>O log de atividades do Azure Monitor é um log de plataforma no Azure que fornece informações sobre eventos de nível de assinatura. O registro de atividades inclui informações como quando um recurso é modificado. É recomendável enviar esse log de atividades para o mesmo repositório de armazenamento externo que o Log de Auditoria do Banco de Dados SQL do Azure (conta de armazenamento, espaço de trabalho Análise de Log, Hub de Eventos).</t>
+          <t>O Ponto de Extremidade do Serviço de Rede Virtual do Azure é a solução preferida se você quiser estabelecer uma conexão direta com os nós de back-end do Banco de Dados SQL do Azure usando a política de Redireccionamento. Isso permitirá o acesso no modo de alto desempenho e é a abordagem recomendada do ponto de vista do desempenho.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3161,14 +3161,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview?view=azuresql#ip-vs-virtual-network-firewall-rules</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>fcd34708-87ac-4efc-aaf6-57a47f76644a</t>
+          <t>55187443-6852-4fbd-99c6-ce303597ca7f</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3179,22 +3179,22 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Log</t>
+          <t>Rede</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>SIEM/SOAR</t>
+          <t>Acesso Público</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Verifique se os dados do Log de Atividades do Banco de Dados SQL do Azure são apresentados em seu SIEM/SOAR</t>
+          <t>Se a conectividade de Acesso Público for usada, verifique se apenas IPs conhecidos específicos são adicionados ao firewall</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t>Encaminhe todos os logs do SQL do Azure para o SIEM (Gerenciamento de Informações e Eventos de Segurança) e SOAR (Automação e Resposta de Orquestração de Segurança), que podem ser usados para configurar detecções de ameaças personalizadas. Verifique se você está monitorando diferentes tipos de ativos do Azure em busca de possíveis ameaças e anomalias. Concentre-se em receber alertas de alta qualidade para reduzir os falsos positivos para os analistas classificarem. Os alertas podem ser obtidos a partir de dados de log, agentes ou outros dados.</t>
+          <t>O firewall do Banco de Dados SQL do Azure permite que você especifique intervalos de endereços IP dos quais as comunicações são aceitas. Essa abordagem é adequada para endereços IP estáveis que estão fora da rede privada do Azure.</t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
@@ -3210,7 +3210,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3218,7 +3218,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
+          <t>a73e32da-b3f4-4960-b5ec-2f42a557bf31</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3234,22 +3234,22 @@
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Acesso Público</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Revise os métodos de conectividade de Acesso Público versus Privado e selecione o apropriado para a carga de trabalho</t>
+          <t>Se a conectividade do Acesso Público for usada e controlada pelas regras de firewall do Banco de Dados SQL do Azure, use regras IP no nível do banco de dados sobre as regras IP no nível do servidor</t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>Quando você cria um servidor lógico a partir do portal do Azure para o Banco de Dados SQL do Azure, o resultado é um ponto de extremidade público que é visível e acessível pela rede pública (Acesso Público). Em seguida, você pode limitar a conectividade com base nas regras de firewall e no Ponto de Extremidade de Serviço. Você também pode configurar a conectividade privada limitando apenas as conexões a redes internas usando o Ponto de Extremidade Privado (Acesso Privado). O Acesso Privado usando o Ponto de Extremidade Privado deve ser o padrão, a menos que se aplique um caso de negócios ou um motivo de desempenho/técnico que não possa suportá-lo.</t>
+          <t>Recomendamos que você use regras de firewall IP no nível do banco de dados sempre que possível. Essa prática aumenta a segurança e torna seu banco de dados mais portátil. Use regras de firewall IP no nível do servidor para administradores. Use-os também quando tiver muitos bancos de dados com os mesmos requisitos de acesso e não quiser configurar cada banco de dados individualmente.</t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3260,7 +3260,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/firewall-configure</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3268,7 +3268,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>2c6d356a-1784-475b-a42c-ec187dc8c925</t>
+          <t>e0f31ac9-35c8-4bfd-9865-edb60ffc6768</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3284,22 +3284,22 @@
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Acesso Público</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Manter a Política de Conexão do Banco de Dados SQL do Azure padrão se não for exigida e justificada de forma diferente</t>
+          <t>Não habilitar o ponto de extremidade público da Instância Gerenciada SQL do Azure</t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>IMPORTANTE: As conexões com o ponto de extremidade privado oferecem suporte apenas ao Proxy como a política de conexão. Ao usar pontos de extremidade privados, as conexões são intermediadas por proxy por meio do gateway do Banco de Dados SQL do Azure para os nós do banco de dados. Os clientes não terão uma conexão direta.</t>
+          <t>Uma Instância Gerenciada (SQL MI) pode ser isolada dentro de uma rede virtual para impedir o acesso externo. O ponto de extremidade público da Instância Gerenciada não está habilitado por padrão, deve ser explicitamente habilitado, somente se estritamente necessário. Se a política da empresa não permitir o uso de pontos de extremidade públicos, use a Política do Azure para impedir a habilitação de pontos de extremidade públicos em primeiro lugar.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3310,7 +3310,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/connectivity-architecture</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/managed-instance/public-endpoint-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3318,7 +3318,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>557b3ce5-bada-4296-8d52-a2d447bc1718</t>
+          <t>b8435656-143e-41a8-9922-61d34edb751a</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3334,22 +3334,22 @@
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Acesso Privado</t>
+          <t>Acesso Público</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Se a conectividade de Acesso Privado for usada, verifique se você está usando as listas de verificação Ponto de Extremidade Privado, Rede Virtual do Azure, Firewall do Azure e Grupo de Segurança de Rede do Azure</t>
+          <t>Restringir o acesso se o ponto de extremidade público da Instância Gerenciada SQL do Azure for necessário</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>O Ponto de Extremidade Privado é criado dentro de uma sub-rede em uma Rede Virtual do Azure. A configuração de segurança adequada deve ser aplicada também ao ambiente de rede que o contém, incluindo NSG/ASG, UDR, firewall, monitoramento e auditoria.</t>
+          <t>Um ponto de extremidade público de Instância Gerenciada (SQL MI) não está habilitado por padrão, deve ser explicitamente habilitado, somente se estritamente necessário. Nesse caso, recomenda-se aplicar um NSG (Network Security Groups) para restringir o acesso à porta 3342 somente a endereços IP de origem confiáveis.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3360,14 +3360,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/managed-instance/public-endpoint-overview</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>246cd832-f550-4af0-9c74-ca9baeeb8860</t>
+          <t>057dd298-8726-4aa6-b590-1f81d2e30421</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3378,27 +3378,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Acesso privilegiado</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Acesso Privado</t>
+          <t>Cofre</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Se o Ponto de Extremidade Privado (Acesso Privado) for usado, considere desabilitar a conectividade do Acesso Público</t>
+          <t>Revisar e habilitar o acesso do Customer Lockbox para o Banco de Dados SQL do Azure pelo pessoal da Microsoft</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>Ao adicionar uma conexão de Ponto de Extremidade Privado, o roteamento público para o servidor lógico não é bloqueado por padrão. No painel --Firewall e redes virtuais-- , a configuração --Negar acesso à rede pública-- não está selecionada por padrão. Para desabilitar o acesso à rede pública, certifique-se de selecionar --Negar acesso à rede pública--.</t>
+          <t>A maioria das operações, suporte e solução de problemas executados pelo pessoal e subprocessadores da Microsoft não requer acesso aos dados do cliente. Nas raras circunstâncias em que esse acesso é necessário, o Customer Lockbox para Microsoft Azure fornece uma interface para que os clientes analisem e aprovem ou rejeitem solicitações de acesso a dados de clientes.  Em cenários de suporte em que a Microsoft precisa acessar dados do cliente, o Banco de Dados SQL do Azure dá suporte ao Customer Lockbox para fornecer uma interface para que você revise e aprove ou rejeite solicitações de acesso a dados do cliente.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3409,7 +3409,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/private-endpoint-overview?view=azuresql#disable-public-access-to-your-logical-server</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3417,7 +3417,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>3a0808ee-ea7a-47ab-bdce-920a6a2b3881</t>
+          <t>37b6eb0f-553d-488f-8a8a-cb9bf97388ff</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3428,22 +3428,22 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Acesso privilegiado</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Acesso Privado</t>
+          <t>Permissões</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Se o Ponto de Extremidade Privado (Acesso Privado) for usado, aplique o NSG e, eventualmente, o ASG para limitar os intervalos de endereços IP de origem de entrada</t>
+          <t>Certifique-se de que os usuários recebam o nível mínimo de acesso necessário para concluir suas funções de trabalho</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t>O NSG (Grupo de Segurança de Rede) e o ASG (Grupo de Segurança de Aplicativo) agora podem ser aplicados à sub-rede que contém Pontos de Extremidade Privados para restringir as conexões com o SQLDB do Azure com base em intervalos de IP de origem interna.</t>
+          <t>O princípio do privilégio mínimo afirma que os usuários não devem ter mais privilégios do que o necessário para concluir suas tarefas. Os usuários de banco de dados e servidor com alto privilégio podem executar muitas atividades de configuração e manutenção no banco de dados e também podem descartar bancos de dados na instância SQL do Azure. Rastrear proprietários de bancos de dados e contas privilegiadas é importante para evitar ter permissão excessiva.</t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
@@ -3459,14 +3459,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/private-link/private-endpoint-overview#network-security-of-private-endpoints</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/security-best-practice?view=azuresql#implement-principle-of-least-privilege</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>8600527e-e8c4-4424-90ef-1f0dca0224f2</t>
+          <t>5fe5281f-f0f9-4842-a682-8baf18bd8316</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3477,27 +3477,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Acesso privilegiado</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Acesso Público</t>
+          <t>Permissões</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Se a conectividade de Acesso Público for usada, aproveite o Ponto de Extremidade de Serviço para restringir o acesso de Redes Virtuais do Azure selecionadas</t>
+          <t>Verifique se aplicativos distintos receberão credenciais diferentes com permissões mínimas para acessar o Banco de Dados SQL do Azure</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>O Ponto de Extremidade do Serviço de Rede Virtual do Azure é a solução preferida se você quiser estabelecer uma conexão direta com os nós de back-end do Banco de Dados SQL do Azure usando a política de Redireccionamento. Isso permitirá o acesso no modo de alto desempenho.</t>
+          <t>As identidades (Usuários e SPNs) devem ter o escopo da menor quantidade de acesso necessária para executar a função.  Um número maior de SPNs com escopo restrito deve ser usado, em vez de ter um SPN com vários conjuntos de permissões não relacionadas. Por exemplo, se houver três aplicativos Web externos hospedados no local que fazem consultas ao Banco de Dados SQL do Azure, nem todos eles devem usar o mesmo SPN para essas atividades.  Em vez disso, cada um deles deve ter seu próprio SPN de escopo rígido.</t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3508,14 +3508,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview?view=azuresql#ip-vs-virtual-network-firewall-rules</t>
+          <t>https://learn.microsoft.com/en-us/security/benchmark/azure/baselines/sql-database-security-baseline#im-3-use-azure-ad-single-sign-on-sso-for-application-access</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>55187443-6852-4fbd-99c6-ce303597ca7f</t>
+          <t>7b5b55e5-4750-4920-be97-eb726c256a5c</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3526,45 +3526,41 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Acesso Público</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Se a conectividade de Acesso Público for usada, verifique se apenas IPs conhecidos específicos são adicionados ao firewall</t>
-        </is>
-      </c>
-      <c r="D57" s="22" t="inlineStr">
-        <is>
-          <t>O firewall do Banco de Dados SQL do Azure permite que você especifique intervalos de endereços IP dos quais as comunicações são aceitas. Essa abordagem é adequada para endereços IP estáveis que estão fora da rede privada do Azure.</t>
-        </is>
-      </c>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+        </is>
+      </c>
+      <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>a73e32da-b3f4-4960-b5ec-2f42a557bf31</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3575,45 +3571,41 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Acesso Público</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Se a conectividade do Acesso Público for usada e controlada pelas regras de firewall do Banco de Dados SQL do Azure, use regras de IP no nível do banco de dados sobre as regras IP no nível do servidor sempre que possível</t>
-        </is>
-      </c>
-      <c r="D58" s="22" t="inlineStr">
-        <is>
-          <t>Recomendamos que você use regras de firewall IP no nível do banco de dados sempre que possível. Essa prática aumenta a segurança e torna seu banco de dados mais portátil. Use regras de firewall IP no nível do servidor para administradores. Use-os também quando tiver muitos bancos de dados com os mesmos requisitos de acesso e não quiser configurar cada banco de dados individualmente.</t>
-        </is>
-      </c>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+        </is>
+      </c>
+      <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/firewall-configure</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e0f31ac9-35c8-4bfd-9865-edb60ffc6768</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3624,45 +3616,41 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Conectividade</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Verifique se a configuração Permitir que os Serviços e Recursos do Azure acessem este Servidor está desabilitada no firewall do Banco de Dados SQL do Azure</t>
-        </is>
-      </c>
-      <c r="D59" s="22" t="inlineStr">
-        <is>
-          <t>Essa opção configura o firewall para permitir todas as conexões do Azure, incluindo conexões das assinaturas de outros clientes. Se você selecionar essa opção, verifique se as permissões de login e de usuário limitam o acesso somente a usuários autorizados. Se não for estritamente necessário, mantenha essa configuração como OFF.</t>
-        </is>
-      </c>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+        </is>
+      </c>
+      <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/network-access-controls-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>f48efacf-4405-4e8d-9dd0-16c5302ed082</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3673,45 +3661,46 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Controle de saída</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Negar todas as permissões para chamadas de API REST de saída para pontos de extremidade externos</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="inlineStr">
-        <is>
-          <t>O Banco de Dados SQL do Azure tem um novo recurso interno que permite a integração nativa com pontos de extremidade REST externos. Isso significa que a integração do Banco de Dados SQL do Azure com o Azure Functions, os Aplicativos Lógicos do Azure, os Serviços Cognitivos, os Hubs de Eventos, a Grade de Eventos, os Contêineres do Azure, o Gerenciamento de API e, em geral, qualquer ponto de extremidade REST ou mesmo GraphQL. Se não for restringido corretamente, o código dentro de um banco de dados do Banco de Dados SQL do Azure poderá aproveitar esse mecanismo para exfiltrar dados. Se não for estritamente necessário, recomenda-se negar explicitamente as permissões necessárias para usar esse recurso.</t>
-        </is>
-      </c>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="n"/>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/sql/relational-databases/system-stored-procedures/sp-invoke-external-rest-endpoint-transact-sql</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>cb3274a7-e36d-46f6-8de5-46d30c8dde8e</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3722,45 +3711,41 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Rede</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Controle de saída</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Se o acesso à rede de saída for necessário, é recomendável configurar restrições de rede de saída usando o recurso de controle interno do Banco de Dados SQL do Azure</t>
-        </is>
-      </c>
-      <c r="D61" s="22" t="inlineStr">
-        <is>
-          <t>As regras de firewall de saída limitam o tráfego de rede do servidor lógico do Banco de Dados SQL do Azure a uma lista definida pelo cliente de contas de Armazenamento do Azure e servidores lógicos do Banco de Dados SQL do Azure. Qualquer tentativa de acessar contas de armazenamento ou bancos de dados que não estejam nessa lista é negada.</t>
-        </is>
-      </c>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+        </is>
+      </c>
+      <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Não verificado</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-sql/database/outbound-firewall-rule-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>a566dd3d-314e-4a94-9378-102c42d82b38</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -11824,7 +11809,7 @@
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F62" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/sqldb_security_checklist.pt.xlsx
+++ b/spreadsheet/sqldb_security_checklist.pt.xlsx
@@ -1332,7 +1332,11 @@
       <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
-      <c r="L12" s="26" t="inlineStr"/>
+      <c r="L12" s="26" t="inlineStr">
+        <is>
+          <t>d401509b-2629-4484-9a7f-af0d29a7778f</t>
+        </is>
+      </c>
       <c r="M12" s="26" t="n"/>
       <c r="N12" s="26" t="n"/>
       <c r="O12" s="26" t="n"/>
@@ -2126,7 +2130,11 @@
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
-      <c r="L28" s="26" t="inlineStr"/>
+      <c r="L28" s="26" t="inlineStr">
+        <is>
+          <t>88287d4a-8bb8-4640-ad78-03f51354d003</t>
+        </is>
+      </c>
       <c r="M28" s="26" t="n"/>
       <c r="N28" s="26" t="n"/>
       <c r="O28" s="26" t="n"/>
@@ -2671,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>41503bf8-73da-4a10-af9f-5f7fceb5456f</t>
+          <t>19ec7c97-c563-4e1d-82f0-54d6ec12e754</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -11632,7 +11640,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11716,7 +11724,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11773,43 +11781,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F57" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F57" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
